--- a/capiq_data/in_process_data/IQ275034.xlsx
+++ b/capiq_data/in_process_data/IQ275034.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C8BFDB-79B1-4EE5-A52B-A646C7DD30CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA09CF0-C077-4FB2-9176-AB4B59509181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"2a1c2c3a-48ec-47b2-a92e-9feb0b4af8b2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"841ce4d4-9ee0-4eee-b0a8-02a88d87c1c8"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>118.65</v>
+        <v>105.27200000000001</v>
       </c>
       <c r="D2">
-        <v>2807.7280000000001</v>
+        <v>2018.9159999999999</v>
       </c>
       <c r="E2">
-        <v>1364.4059999999999</v>
+        <v>1031.662</v>
       </c>
       <c r="F2">
-        <v>817.12800000000004</v>
+        <v>679.97699999999998</v>
       </c>
       <c r="G2">
-        <v>4414.8869999999997</v>
+        <v>3019.4810000000002</v>
       </c>
       <c r="H2">
-        <v>5465.0439999999999</v>
+        <v>4142.1139999999996</v>
       </c>
       <c r="I2">
-        <v>1374.93</v>
+        <v>635.49900000000002</v>
       </c>
       <c r="J2">
-        <v>250</v>
+        <v>770.58100000000002</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1971.8140000000001</v>
+        <v>988.31299999999999</v>
       </c>
       <c r="O2">
-        <v>2662.33</v>
+        <v>1836.7080000000001</v>
       </c>
       <c r="P2">
-        <v>529.13699999999994</v>
+        <v>922.03300000000002</v>
       </c>
       <c r="Q2">
-        <v>-1.7629999999999999</v>
+        <v>-13.19</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>29500</v>
+        <v>33000</v>
       </c>
       <c r="T2">
-        <v>2802.7139999999999</v>
+        <v>2305.4059999999999</v>
       </c>
       <c r="U2">
-        <v>529.96799999999996</v>
+        <v>27.738</v>
       </c>
       <c r="V2">
-        <v>110.241</v>
+        <v>-28.690999999999999</v>
       </c>
       <c r="W2">
-        <v>-64.584999999999994</v>
+        <v>-46.784999999999997</v>
       </c>
       <c r="X2">
-        <v>-66.495000000000005</v>
+        <v>26.829000000000001</v>
       </c>
       <c r="Y2">
-        <v>29.137</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>118.65</v>
+        <v>105.27200000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>126.515</v>
+        <v>89.272999999999996</v>
       </c>
       <c r="D3">
-        <v>2974.1979999999999</v>
+        <v>2054.9720000000002</v>
       </c>
       <c r="E3">
-        <v>1490.7439999999999</v>
+        <v>1094.723</v>
       </c>
       <c r="F3">
-        <v>848.79399999999998</v>
+        <v>623.15899999999999</v>
       </c>
       <c r="G3">
-        <v>4495.2290000000003</v>
+        <v>3081.0219999999999</v>
       </c>
       <c r="H3">
-        <v>5569.52</v>
+        <v>4190.6790000000001</v>
       </c>
       <c r="I3">
-        <v>1369.5419999999999</v>
+        <v>603.41999999999996</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>822.60599999999999</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,37 +975,37 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2003.636</v>
+        <v>972.77599999999995</v>
       </c>
       <c r="O3">
-        <v>2690.652</v>
+        <v>1873.1959999999999</v>
       </c>
       <c r="P3">
-        <v>500</v>
+        <v>989.54200000000003</v>
       </c>
       <c r="Q3">
-        <v>-64.085999999999999</v>
+        <v>21.448</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2878.8679999999999</v>
+        <v>2317.4830000000002</v>
       </c>
       <c r="U3">
-        <v>465.88200000000001</v>
+        <v>49.186</v>
       </c>
       <c r="V3">
-        <v>53.411000000000001</v>
+        <v>27.591000000000001</v>
       </c>
       <c r="W3">
-        <v>-64.599999999999994</v>
+        <v>-47.406999999999996</v>
       </c>
       <c r="X3">
-        <v>-72.557000000000002</v>
+        <v>8.1389999999999993</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +1014,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>126.515</v>
+        <v>89.272999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>151.81200000000001</v>
+        <v>94.688000000000002</v>
       </c>
       <c r="D4">
-        <v>3184.9839999999999</v>
+        <v>2118.9760000000001</v>
       </c>
       <c r="E4">
-        <v>1565.8889999999999</v>
+        <v>1131.433</v>
       </c>
       <c r="F4">
-        <v>916.11400000000003</v>
+        <v>642.97699999999998</v>
       </c>
       <c r="G4">
-        <v>4633.2910000000002</v>
+        <v>3032.7950000000001</v>
       </c>
       <c r="H4">
-        <v>5717.0010000000002</v>
+        <v>4151.2380000000003</v>
       </c>
       <c r="I4">
-        <v>1492.0409999999999</v>
+        <v>628.61800000000005</v>
       </c>
       <c r="J4">
-        <v>250</v>
+        <v>709.93899999999996</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2107.415</v>
+        <v>979.57299999999998</v>
       </c>
       <c r="O4">
-        <v>2785.7049999999999</v>
+        <v>1762.3710000000001</v>
       </c>
       <c r="P4">
-        <v>500</v>
+        <v>907.98500000000001</v>
       </c>
       <c r="Q4">
-        <v>50.845999999999997</v>
+        <v>-3.5009999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2931.2959999999998</v>
+        <v>2388.8670000000002</v>
       </c>
       <c r="U4">
-        <v>516.72799999999995</v>
+        <v>45.685000000000002</v>
       </c>
       <c r="V4">
-        <v>196.54</v>
+        <v>152.69800000000001</v>
       </c>
       <c r="W4">
-        <v>-70.95</v>
+        <v>-49.067</v>
       </c>
       <c r="X4">
-        <v>-115.30500000000001</v>
+        <v>-129.57599999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1097,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>151.81200000000001</v>
+        <v>94.688000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>151.83199999999999</v>
+        <v>88.215999999999994</v>
       </c>
       <c r="D5">
-        <v>3285.56</v>
+        <v>2099.1909999999998</v>
       </c>
       <c r="E5">
-        <v>1531.046</v>
+        <v>1085.4190000000001</v>
       </c>
       <c r="F5">
-        <v>948.53200000000004</v>
+        <v>630.31200000000001</v>
       </c>
       <c r="G5">
-        <v>4646.3130000000001</v>
+        <v>3010.8670000000002</v>
       </c>
       <c r="H5">
-        <v>5784.7179999999998</v>
+        <v>4103.6239999999998</v>
       </c>
       <c r="I5">
-        <v>1587.326</v>
+        <v>606.12900000000002</v>
       </c>
       <c r="J5">
-        <v>250</v>
+        <v>627.25900000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2240.66</v>
+        <v>1004.891</v>
       </c>
       <c r="O5">
-        <v>2893.3270000000002</v>
+        <v>1690.326</v>
       </c>
       <c r="P5">
-        <v>500</v>
+        <v>791.14200000000005</v>
       </c>
       <c r="Q5">
-        <v>18.073</v>
+        <v>63.228999999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2891.3910000000001</v>
+        <v>2413.2979999999998</v>
       </c>
       <c r="U5">
-        <v>534.80100000000004</v>
+        <v>108.914</v>
       </c>
       <c r="V5">
-        <v>247.45699999999999</v>
+        <v>236.798</v>
       </c>
       <c r="W5">
-        <v>-70.686000000000007</v>
+        <v>-50.847000000000001</v>
       </c>
       <c r="X5">
-        <v>-127.649</v>
+        <v>-161.69800000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1180,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>151.83199999999999</v>
+        <v>88.215999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>134.95699999999999</v>
+        <v>24.97</v>
       </c>
       <c r="D6">
-        <v>3014.1350000000002</v>
+        <v>1947.529</v>
       </c>
       <c r="E6">
-        <v>1461.011</v>
+        <v>1010.728</v>
       </c>
       <c r="F6">
-        <v>892.6</v>
+        <v>642.44600000000003</v>
       </c>
       <c r="G6">
-        <v>4754.71</v>
+        <v>3146.212</v>
       </c>
       <c r="H6">
-        <v>6202.7740000000003</v>
+        <v>4206.6459999999997</v>
       </c>
       <c r="I6">
-        <v>1440.7619999999999</v>
+        <v>644.08399999999995</v>
       </c>
       <c r="J6">
-        <v>500</v>
+        <v>835.58</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2012.548</v>
+        <v>919.18100000000004</v>
       </c>
       <c r="O6">
-        <v>3449.183</v>
+        <v>1815.7460000000001</v>
       </c>
       <c r="P6">
-        <v>534.18600000000004</v>
+        <v>924.34</v>
       </c>
       <c r="Q6">
-        <v>-9.7469999999999999</v>
+        <v>-23.143999999999998</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>29800</v>
+        <v>31000</v>
       </c>
       <c r="T6">
-        <v>2753.5909999999999</v>
+        <v>2390.9</v>
       </c>
       <c r="U6">
-        <v>525.05399999999997</v>
+        <v>85.77</v>
       </c>
       <c r="V6">
-        <v>127.51900000000001</v>
+        <v>-81.447000000000003</v>
       </c>
       <c r="W6">
-        <v>-70.132999999999996</v>
+        <v>-47.701000000000001</v>
       </c>
       <c r="X6">
-        <v>-78.629000000000005</v>
+        <v>59.064999999999998</v>
       </c>
       <c r="Y6">
-        <v>34.186</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>134.95699999999999</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>146.255</v>
+        <v>-308.06299999999999</v>
       </c>
       <c r="D7">
-        <v>3181.288</v>
+        <v>1977.7429999999999</v>
       </c>
       <c r="E7">
-        <v>1605.4690000000001</v>
+        <v>1088.018</v>
       </c>
       <c r="F7">
-        <v>919.11099999999999</v>
+        <v>603.96900000000005</v>
       </c>
       <c r="G7">
-        <v>4601.5460000000003</v>
+        <v>3068.0360000000001</v>
       </c>
       <c r="H7">
-        <v>6095.8289999999997</v>
+        <v>3755.0250000000001</v>
       </c>
       <c r="I7">
-        <v>1559.874</v>
+        <v>613.39200000000005</v>
       </c>
       <c r="J7">
-        <v>500</v>
+        <v>735.46100000000001</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1304,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-106.559</v>
       </c>
       <c r="N7">
-        <v>1931.3689999999999</v>
+        <v>902.98400000000004</v>
       </c>
       <c r="O7">
-        <v>3201.835</v>
+        <v>1699.43</v>
       </c>
       <c r="P7">
-        <v>500</v>
+        <v>786.21100000000001</v>
       </c>
       <c r="Q7">
-        <v>-100.63</v>
+        <v>-29.411999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2893.9940000000001</v>
+        <v>2055.5949999999998</v>
       </c>
       <c r="U7">
-        <v>424.42399999999998</v>
+        <v>56.357999999999997</v>
       </c>
       <c r="V7">
-        <v>172.297</v>
+        <v>120.182</v>
       </c>
       <c r="W7">
-        <v>-70.019000000000005</v>
+        <v>-51.539000000000001</v>
       </c>
       <c r="X7">
-        <v>-68.102000000000004</v>
+        <v>-138.15199999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1346,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>146.255</v>
+        <v>-308.06299999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>168.61799999999999</v>
+        <v>96.046999999999997</v>
       </c>
       <c r="D8">
-        <v>3337.8359999999998</v>
+        <v>2130.924</v>
       </c>
       <c r="E8">
-        <v>1605.6959999999999</v>
+        <v>1112.7170000000001</v>
       </c>
       <c r="F8">
-        <v>972.28599999999994</v>
+        <v>644.23199999999997</v>
       </c>
       <c r="G8">
-        <v>4423.375</v>
+        <v>3133.6550000000002</v>
       </c>
       <c r="H8">
-        <v>6184.9290000000001</v>
+        <v>3827.48</v>
       </c>
       <c r="I8">
-        <v>1599.6949999999999</v>
+        <v>689.98699999999997</v>
       </c>
       <c r="J8">
-        <v>500</v>
+        <v>675.40700000000004</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1978.2560000000001</v>
+        <v>959.48299999999995</v>
       </c>
       <c r="O8">
-        <v>3253.107</v>
+        <v>1716.788</v>
       </c>
       <c r="P8">
-        <v>500</v>
+        <v>720.18899999999996</v>
       </c>
       <c r="Q8">
-        <v>-252.84700000000001</v>
+        <v>-31.809000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2931.8220000000001</v>
+        <v>2110.692</v>
       </c>
       <c r="U8">
-        <v>171.577</v>
+        <v>24.548999999999999</v>
       </c>
       <c r="V8">
-        <v>249.01599999999999</v>
+        <v>85.22</v>
       </c>
       <c r="W8">
-        <v>-77.168000000000006</v>
+        <v>-50.697000000000003</v>
       </c>
       <c r="X8">
-        <v>-129.82900000000001</v>
+        <v>-102.489</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1429,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>168.61799999999999</v>
+        <v>96.046999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>172.94300000000001</v>
+        <v>94.027000000000001</v>
       </c>
       <c r="D9">
-        <v>3375.7779999999998</v>
+        <v>2156.759</v>
       </c>
       <c r="E9">
-        <v>1606.297</v>
+        <v>1084.27</v>
       </c>
       <c r="F9">
-        <v>976.03599999999994</v>
+        <v>649.79300000000001</v>
       </c>
       <c r="G9">
-        <v>4664.5749999999998</v>
+        <v>3156.9250000000002</v>
       </c>
       <c r="H9">
-        <v>6445.8819999999996</v>
+        <v>3860.5590000000002</v>
       </c>
       <c r="I9">
-        <v>1754.2529999999999</v>
+        <v>690.9</v>
       </c>
       <c r="J9">
-        <v>500</v>
+        <v>675.26599999999996</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2101.6170000000002</v>
+        <v>966.74099999999999</v>
       </c>
       <c r="O9">
-        <v>3379.7130000000002</v>
+        <v>1722.854</v>
       </c>
       <c r="P9">
-        <v>500</v>
+        <v>719.04600000000005</v>
       </c>
       <c r="Q9">
-        <v>226.541</v>
+        <v>15.051</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3066.1689999999999</v>
+        <v>2137.7049999999999</v>
       </c>
       <c r="U9">
-        <v>398.11799999999999</v>
+        <v>39.6</v>
       </c>
       <c r="V9">
-        <v>343.50700000000001</v>
+        <v>91.046000000000006</v>
       </c>
       <c r="W9">
-        <v>-76.983000000000004</v>
+        <v>-50.743000000000002</v>
       </c>
       <c r="X9">
-        <v>-79.816000000000003</v>
+        <v>-53.374000000000002</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1512,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>172.94300000000001</v>
+        <v>94.027000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>160.22499999999999</v>
+        <v>90.399000000000001</v>
       </c>
       <c r="D10">
-        <v>3118.9659999999999</v>
+        <v>1993.501</v>
       </c>
       <c r="E10">
-        <v>1490.028</v>
+        <v>1039.8430000000001</v>
       </c>
       <c r="F10">
-        <v>910.65800000000002</v>
+        <v>656.18399999999997</v>
       </c>
       <c r="G10">
-        <v>4820.1310000000003</v>
+        <v>3376.9870000000001</v>
       </c>
       <c r="H10">
-        <v>6807.0609999999997</v>
+        <v>4061.0549999999998</v>
       </c>
       <c r="I10">
-        <v>1681.9</v>
+        <v>735.18299999999999</v>
       </c>
       <c r="J10">
-        <v>250</v>
+        <v>674.79600000000005</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2487.6379999999999</v>
+        <v>1110.93</v>
       </c>
       <c r="O10">
-        <v>3798.8820000000001</v>
+        <v>1883.6379999999999</v>
       </c>
       <c r="P10">
-        <v>533.74800000000005</v>
+        <v>791.70100000000002</v>
       </c>
       <c r="Q10">
-        <v>4.9770000000000003</v>
+        <v>-19.605</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>31900</v>
+        <v>30700</v>
       </c>
       <c r="T10">
-        <v>3008.1790000000001</v>
+        <v>2177.4169999999999</v>
       </c>
       <c r="U10">
-        <v>403.09500000000003</v>
+        <v>19.995000000000001</v>
       </c>
       <c r="V10">
-        <v>141.61799999999999</v>
+        <v>-24.04</v>
       </c>
       <c r="W10">
-        <v>-76.813000000000002</v>
+        <v>-48.170999999999999</v>
       </c>
       <c r="X10">
-        <v>-101.087</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="Y10">
-        <v>33.747999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>160.22499999999999</v>
+        <v>90.399000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>144.38900000000001</v>
+        <v>68.882999999999996</v>
       </c>
       <c r="D11">
-        <v>3198.8020000000001</v>
+        <v>2021.8579999999999</v>
       </c>
       <c r="E11">
-        <v>1624.954</v>
+        <v>1110.3340000000001</v>
       </c>
       <c r="F11">
-        <v>921.74800000000005</v>
+        <v>638.34</v>
       </c>
       <c r="G11">
-        <v>5351.6040000000003</v>
+        <v>3271.1619999999998</v>
       </c>
       <c r="H11">
-        <v>7338.4620000000004</v>
+        <v>3977.558</v>
       </c>
       <c r="I11">
-        <v>1800.7260000000001</v>
+        <v>596.255</v>
       </c>
       <c r="J11">
-        <v>250</v>
+        <v>674.73299999999995</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1636,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3023.3139999999999</v>
+        <v>1004.434</v>
       </c>
       <c r="O11">
-        <v>4264.0190000000002</v>
+        <v>1778.6079999999999</v>
       </c>
       <c r="P11">
-        <v>914.74199999999996</v>
+        <v>847.27300000000002</v>
       </c>
       <c r="Q11">
-        <v>438.79899999999998</v>
+        <v>5.0350000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3074.4430000000002</v>
+        <v>2198.9499999999998</v>
       </c>
       <c r="U11">
-        <v>841.89400000000001</v>
+        <v>25.03</v>
       </c>
       <c r="V11">
-        <v>116.378</v>
+        <v>42.427999999999997</v>
       </c>
       <c r="W11">
-        <v>-76.641000000000005</v>
+        <v>-51.125999999999998</v>
       </c>
       <c r="X11">
-        <v>337.40600000000001</v>
+        <v>-10.871</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>144.38900000000001</v>
+        <v>68.882999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>216.357</v>
+        <v>90.147999999999996</v>
       </c>
       <c r="D12">
-        <v>3675.9969999999998</v>
+        <v>2152.7939999999999</v>
       </c>
       <c r="E12">
-        <v>1759.1759999999999</v>
+        <v>1138.3889999999999</v>
       </c>
       <c r="F12">
-        <v>1105.1079999999999</v>
+        <v>651.38300000000004</v>
       </c>
       <c r="G12">
-        <v>5107.741</v>
+        <v>3289.4430000000002</v>
       </c>
       <c r="H12">
-        <v>7660.3130000000001</v>
+        <v>4021.4929999999999</v>
       </c>
       <c r="I12">
-        <v>2064.8780000000002</v>
+        <v>624.476</v>
       </c>
       <c r="J12">
-        <v>250</v>
+        <v>671.68200000000002</v>
       </c>
       <c r="K12">
-        <v>400.10199999999998</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3322.9470000000001</v>
+        <v>981.08799999999997</v>
       </c>
       <c r="O12">
-        <v>4574.174</v>
+        <v>1753.367</v>
       </c>
       <c r="P12">
-        <v>900.10199999999998</v>
+        <v>802.5</v>
       </c>
       <c r="Q12">
-        <v>-645.12400000000002</v>
+        <v>-3.0880000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3086.1390000000001</v>
+        <v>2268.1260000000002</v>
       </c>
       <c r="U12">
-        <v>196.77</v>
+        <v>21.942</v>
       </c>
       <c r="V12">
-        <v>350.7</v>
+        <v>103.48699999999999</v>
       </c>
       <c r="W12">
-        <v>-83.266999999999996</v>
+        <v>-50.82</v>
       </c>
       <c r="X12">
-        <v>-354.61799999999999</v>
+        <v>-95.046000000000006</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1761,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>216.357</v>
+        <v>90.147999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>173.74600000000001</v>
+        <v>88.332999999999998</v>
       </c>
       <c r="D13">
-        <v>3685.2429999999999</v>
+        <v>2189.3879999999999</v>
       </c>
       <c r="E13">
-        <v>1759.5170000000001</v>
+        <v>1132.837</v>
       </c>
       <c r="F13">
-        <v>1103.923</v>
+        <v>651.94899999999996</v>
       </c>
       <c r="G13">
-        <v>5295.4750000000004</v>
+        <v>3325.3409999999999</v>
       </c>
       <c r="H13">
-        <v>7943.9030000000002</v>
+        <v>4052.1489999999999</v>
       </c>
       <c r="I13">
-        <v>2213.19</v>
+        <v>667.846</v>
       </c>
       <c r="J13">
-        <v>250</v>
+        <v>671.65800000000002</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3454.0940000000001</v>
+        <v>969.803</v>
       </c>
       <c r="O13">
-        <v>4790.7280000000001</v>
+        <v>1744.2380000000001</v>
       </c>
       <c r="P13">
-        <v>833.89599999999996</v>
+        <v>701.66700000000003</v>
       </c>
       <c r="Q13">
-        <v>124.1</v>
+        <v>9.5340000000000007</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3153.1750000000002</v>
+        <v>2307.9110000000001</v>
       </c>
       <c r="U13">
-        <v>320.87</v>
+        <v>31.475999999999999</v>
       </c>
       <c r="V13">
-        <v>370.40699999999998</v>
+        <v>180.06800000000001</v>
       </c>
       <c r="W13">
-        <v>-83.353999999999999</v>
+        <v>-51.307000000000002</v>
       </c>
       <c r="X13">
-        <v>-195.73500000000001</v>
+        <v>-152.209</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>173.74600000000001</v>
+        <v>88.332999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>150.46700000000001</v>
+        <v>86.736999999999995</v>
       </c>
       <c r="D14">
-        <v>3517.8009999999999</v>
+        <v>2085.2600000000002</v>
       </c>
       <c r="E14">
-        <v>1664.819</v>
+        <v>1084.874</v>
       </c>
       <c r="F14">
-        <v>1092.1410000000001</v>
+        <v>680.94399999999996</v>
       </c>
       <c r="G14">
-        <v>5221.491</v>
+        <v>3402.21</v>
       </c>
       <c r="H14">
-        <v>7680.2969999999996</v>
+        <v>4127.9560000000001</v>
       </c>
       <c r="I14">
-        <v>2269.6709999999998</v>
+        <v>706.60900000000004</v>
       </c>
       <c r="J14">
-        <v>500</v>
+        <v>625.10799999999995</v>
       </c>
       <c r="K14">
-        <v>264.65800000000002</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,120 +1888,120 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3183.0439999999999</v>
+        <v>967.33799999999997</v>
       </c>
       <c r="O14">
-        <v>4321.5290000000005</v>
+        <v>1768.0309999999999</v>
       </c>
       <c r="P14">
-        <v>792.47299999999996</v>
+        <v>677.63300000000004</v>
       </c>
       <c r="Q14">
-        <v>-123.977</v>
+        <v>-16.082999999999998</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>37500</v>
+        <v>30800</v>
       </c>
       <c r="T14">
-        <v>3358.768</v>
+        <v>2359.9250000000002</v>
       </c>
       <c r="U14">
-        <v>196.893</v>
+        <v>15.393000000000001</v>
       </c>
       <c r="V14">
-        <v>219.24600000000001</v>
+        <v>76.201999999999998</v>
       </c>
       <c r="W14">
-        <v>-82.954999999999998</v>
+        <v>-51.302999999999997</v>
       </c>
       <c r="X14">
-        <v>-212.17</v>
+        <v>-72.513999999999996</v>
       </c>
       <c r="Y14">
-        <v>27.815000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>150.46700000000001</v>
+        <v>86.736999999999995</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>157.48400000000001</v>
+        <v>100.199</v>
       </c>
       <c r="D15">
-        <v>3624.8969999999999</v>
+        <v>2196.991</v>
       </c>
       <c r="E15">
-        <v>1828.309</v>
+        <v>1154.981</v>
       </c>
       <c r="F15">
-        <v>1084.6300000000001</v>
+        <v>686.91099999999994</v>
       </c>
       <c r="G15">
-        <v>5346.4309999999996</v>
+        <v>3446.9879999999998</v>
       </c>
       <c r="H15">
-        <v>7982.3739999999998</v>
+        <v>4167.1710000000003</v>
       </c>
       <c r="I15">
-        <v>2335.3270000000002</v>
+        <v>668.44200000000001</v>
       </c>
       <c r="J15">
-        <v>500</v>
+        <v>625</v>
       </c>
       <c r="K15">
-        <v>399.75599999999997</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-610.60400000000004</v>
+        <v>-15.733000000000001</v>
       </c>
       <c r="N15">
-        <v>3422.7379999999998</v>
+        <v>1010.603</v>
       </c>
       <c r="O15">
-        <v>4571.165</v>
+        <v>1750.0119999999999</v>
       </c>
       <c r="P15">
-        <v>899.75599999999997</v>
+        <v>661.9</v>
       </c>
       <c r="Q15">
-        <v>-93.421000000000006</v>
+        <v>12.695</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3411.2089999999998</v>
+        <v>2417.1590000000001</v>
       </c>
       <c r="U15">
-        <v>103.47199999999999</v>
+        <v>28.088000000000001</v>
       </c>
       <c r="V15">
-        <v>59.779000000000003</v>
+        <v>81.126999999999995</v>
       </c>
       <c r="W15">
-        <v>-82.75</v>
+        <v>-51.331000000000003</v>
       </c>
       <c r="X15">
-        <v>23.318999999999999</v>
+        <v>-56.375</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>157.48400000000001</v>
+        <v>100.199</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>197.727</v>
+        <v>101.146</v>
       </c>
       <c r="D16">
-        <v>3908.3870000000002</v>
+        <v>2297.6860000000001</v>
       </c>
       <c r="E16">
-        <v>1909.268</v>
+        <v>1173.7660000000001</v>
       </c>
       <c r="F16">
-        <v>1179.1679999999999</v>
+        <v>693.06500000000005</v>
       </c>
       <c r="G16">
-        <v>5512.3609999999999</v>
+        <v>3551.6419999999998</v>
       </c>
       <c r="H16">
-        <v>8251.5480000000007</v>
+        <v>4262.09</v>
       </c>
       <c r="I16">
-        <v>2489.5700000000002</v>
+        <v>772.56299999999999</v>
       </c>
       <c r="J16">
         <v>500</v>
       </c>
       <c r="K16">
-        <v>306.358</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3506.8539999999998</v>
+        <v>1171.501</v>
       </c>
       <c r="O16">
-        <v>4714.0540000000001</v>
+        <v>1784.7550000000001</v>
       </c>
       <c r="P16">
-        <v>806.35799999999995</v>
+        <v>627.17200000000003</v>
       </c>
       <c r="Q16">
-        <v>49.390999999999998</v>
+        <v>99.644000000000005</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3537.4940000000001</v>
+        <v>2477.335</v>
       </c>
       <c r="U16">
-        <v>152.863</v>
+        <v>127.732</v>
       </c>
       <c r="V16">
-        <v>307.32299999999998</v>
+        <v>156.548</v>
       </c>
       <c r="W16">
-        <v>-88.421000000000006</v>
+        <v>-52.335999999999999</v>
       </c>
       <c r="X16">
-        <v>-216.62100000000001</v>
+        <v>-43.39</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>197.727</v>
+        <v>101.146</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>190.51599999999999</v>
+        <v>97.893000000000001</v>
       </c>
       <c r="D17">
-        <v>3985.9090000000001</v>
+        <v>2349.2829999999999</v>
       </c>
       <c r="E17">
-        <v>1976.056</v>
+        <v>1166.5329999999999</v>
       </c>
       <c r="F17">
-        <v>1183.422</v>
+        <v>699.39300000000003</v>
       </c>
       <c r="G17">
-        <v>5585.3770000000004</v>
+        <v>3727.864</v>
       </c>
       <c r="H17">
-        <v>8341.4570000000003</v>
+        <v>4438.0159999999996</v>
       </c>
       <c r="I17">
-        <v>2549.1930000000002</v>
+        <v>836.88300000000004</v>
       </c>
       <c r="J17">
         <v>500</v>
       </c>
       <c r="K17">
-        <v>335.39400000000001</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3635.7820000000002</v>
+        <v>1294.0719999999999</v>
       </c>
       <c r="O17">
-        <v>4833.3090000000002</v>
+        <v>1907.3309999999999</v>
       </c>
       <c r="P17">
-        <v>835.39400000000001</v>
+        <v>625.84100000000001</v>
       </c>
       <c r="Q17">
-        <v>-17.326000000000001</v>
+        <v>156.97200000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3508.1480000000001</v>
+        <v>2530.6849999999999</v>
       </c>
       <c r="U17">
-        <v>135.53700000000001</v>
+        <v>284.70400000000001</v>
       </c>
       <c r="V17">
-        <v>222.221</v>
+        <v>232.53200000000001</v>
       </c>
       <c r="W17">
-        <v>-88.194000000000003</v>
+        <v>-52.482999999999997</v>
       </c>
       <c r="X17">
-        <v>-104.637</v>
+        <v>-54.581000000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>190.51599999999999</v>
+        <v>97.893000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>165.559</v>
+        <v>96.313999999999993</v>
       </c>
       <c r="D18">
-        <v>3822.4540000000002</v>
+        <v>2253.3069999999998</v>
       </c>
       <c r="E18">
-        <v>1872.365</v>
+        <v>1123.9000000000001</v>
       </c>
       <c r="F18">
-        <v>1146.5409999999999</v>
+        <v>750.35400000000004</v>
       </c>
       <c r="G18">
-        <v>5592.5249999999996</v>
+        <v>3633.4839999999999</v>
       </c>
       <c r="H18">
-        <v>8246.2379999999994</v>
+        <v>4455.2470000000003</v>
       </c>
       <c r="I18">
-        <v>2554.759</v>
+        <v>856.65300000000002</v>
       </c>
       <c r="J18">
         <v>500</v>
       </c>
       <c r="K18">
-        <v>265.46600000000001</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,120 +2220,120 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3584.1149999999998</v>
+        <v>1132.7149999999999</v>
       </c>
       <c r="O18">
-        <v>4933.8739999999998</v>
+        <v>1858.4760000000001</v>
       </c>
       <c r="P18">
-        <v>805.50599999999997</v>
+        <v>500.96800000000002</v>
       </c>
       <c r="Q18">
-        <v>2.1930000000000001</v>
+        <v>-149.76400000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>39000</v>
+        <v>31200</v>
       </c>
       <c r="T18">
-        <v>3312.364</v>
+        <v>2596.7710000000002</v>
       </c>
       <c r="U18">
-        <v>137.72999999999999</v>
+        <v>134.94</v>
       </c>
       <c r="V18">
-        <v>200.822</v>
+        <v>85.028999999999996</v>
       </c>
       <c r="W18">
-        <v>-87.906000000000006</v>
+        <v>-52.424999999999997</v>
       </c>
       <c r="X18">
-        <v>-157.501</v>
+        <v>-214.982</v>
       </c>
       <c r="Y18">
-        <v>40.04</v>
+        <v>0</v>
       </c>
       <c r="Z18">
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>165.559</v>
+        <v>96.313999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>161.01</v>
+        <v>106.598</v>
       </c>
       <c r="D19">
-        <v>3736.0509999999999</v>
+        <v>2342.201</v>
       </c>
       <c r="E19">
-        <v>1978.2329999999999</v>
+        <v>1195.0340000000001</v>
       </c>
       <c r="F19">
-        <v>1112.819</v>
+        <v>736.48</v>
       </c>
       <c r="G19">
-        <v>5634.6989999999996</v>
+        <v>3689.502</v>
       </c>
       <c r="H19">
-        <v>8238.3549999999996</v>
+        <v>4530.9719999999998</v>
       </c>
       <c r="I19">
-        <v>2608.491</v>
+        <v>878.64</v>
       </c>
       <c r="J19">
         <v>500</v>
       </c>
       <c r="K19">
-        <v>393.697</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-650</v>
+        <v>-7.0999999999999994E-2</v>
       </c>
       <c r="N19">
-        <v>3759.3609999999999</v>
+        <v>1180.326</v>
       </c>
       <c r="O19">
-        <v>5047.3130000000001</v>
+        <v>1909.32</v>
       </c>
       <c r="P19">
-        <v>893.697</v>
+        <v>500.89699999999999</v>
       </c>
       <c r="Q19">
-        <v>28.765000000000001</v>
+        <v>22.876999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3191.0419999999999</v>
+        <v>2621.652</v>
       </c>
       <c r="U19">
-        <v>166.495</v>
+        <v>157.81700000000001</v>
       </c>
       <c r="V19">
-        <v>122.512</v>
+        <v>116.211</v>
       </c>
       <c r="W19">
-        <v>-88.039000000000001</v>
+        <v>-52.494999999999997</v>
       </c>
       <c r="X19">
-        <v>-42.451000000000001</v>
+        <v>-79.37</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>161.01</v>
+        <v>106.598</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>195.37299999999999</v>
+        <v>110.967</v>
       </c>
       <c r="D20">
-        <v>3940.4009999999998</v>
+        <v>2475.6570000000002</v>
       </c>
       <c r="E20">
-        <v>2008.4449999999999</v>
+        <v>1225.674</v>
       </c>
       <c r="F20">
-        <v>1178.33</v>
+        <v>761.25699999999995</v>
       </c>
       <c r="G20">
-        <v>5763.52</v>
+        <v>3764.1489999999999</v>
       </c>
       <c r="H20">
-        <v>8413.6329999999998</v>
+        <v>4610.7910000000002</v>
       </c>
       <c r="I20">
-        <v>2743.444</v>
+        <v>974.846</v>
       </c>
       <c r="J20">
         <v>500</v>
       </c>
       <c r="K20">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3867.6219999999998</v>
+        <v>1228.3530000000001</v>
       </c>
       <c r="O20">
-        <v>5158.1350000000002</v>
+        <v>1956.116</v>
       </c>
       <c r="P20">
-        <v>850</v>
+        <v>500.92899999999997</v>
       </c>
       <c r="Q20">
-        <v>57.344999999999999</v>
+        <v>102.721</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3255.498</v>
+        <v>2654.6750000000002</v>
       </c>
       <c r="U20">
-        <v>223.84</v>
+        <v>260.53800000000001</v>
       </c>
       <c r="V20">
-        <v>331.596</v>
+        <v>201.01599999999999</v>
       </c>
       <c r="W20">
-        <v>-93.843999999999994</v>
+        <v>-54.63</v>
       </c>
       <c r="X20">
-        <v>-203.232</v>
+        <v>-78.206000000000003</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>195.37299999999999</v>
+        <v>110.967</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>188.01599999999999</v>
+        <v>110.876</v>
       </c>
       <c r="D21">
-        <v>3921.8020000000001</v>
+        <v>2555.5030000000002</v>
       </c>
       <c r="E21">
-        <v>1963.1579999999999</v>
+        <v>1227.836</v>
       </c>
       <c r="F21">
-        <v>1169.2249999999999</v>
+        <v>778.50199999999995</v>
       </c>
       <c r="G21">
-        <v>5623.482</v>
+        <v>3893.123</v>
       </c>
       <c r="H21">
-        <v>8203.1280000000006</v>
+        <v>4769.2929999999997</v>
       </c>
       <c r="I21">
-        <v>2851.0219999999999</v>
+        <v>1041.335</v>
       </c>
       <c r="J21">
         <v>500</v>
       </c>
       <c r="K21">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3764.0680000000002</v>
+        <v>1331.4159999999999</v>
       </c>
       <c r="O21">
-        <v>5032.1040000000003</v>
+        <v>2062.4639999999999</v>
       </c>
       <c r="P21">
-        <v>625</v>
+        <v>500.90800000000002</v>
       </c>
       <c r="Q21">
-        <v>-24.545999999999999</v>
+        <v>78.966999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3171.0239999999999</v>
+        <v>2706.8290000000002</v>
       </c>
       <c r="U21">
-        <v>199.29400000000001</v>
+        <v>339.505</v>
       </c>
       <c r="V21">
-        <v>441.87900000000002</v>
+        <v>176.6</v>
       </c>
       <c r="W21">
-        <v>-93.495999999999995</v>
+        <v>-54.411000000000001</v>
       </c>
       <c r="X21">
-        <v>-398.48700000000002</v>
+        <v>-83.804000000000002</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>188.01599999999999</v>
+        <v>110.876</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>161.273</v>
+        <v>108.99299999999999</v>
       </c>
       <c r="D22">
-        <v>3681.79</v>
+        <v>2409.6889999999999</v>
       </c>
       <c r="E22">
-        <v>1822.4190000000001</v>
+        <v>1186.865</v>
       </c>
       <c r="F22">
-        <v>1095.4780000000001</v>
+        <v>787.84699999999998</v>
       </c>
       <c r="G22">
-        <v>5555.3159999999998</v>
+        <v>3806.8820000000001</v>
       </c>
       <c r="H22">
-        <v>8144.7709999999997</v>
+        <v>4771.5379999999996</v>
       </c>
       <c r="I22">
-        <v>2821.5259999999998</v>
+        <v>973.61500000000001</v>
       </c>
       <c r="J22">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K22">
-        <v>125</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,120 +2552,120 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3940.654</v>
+        <v>1249.104</v>
       </c>
       <c r="O22">
-        <v>4985.5290000000005</v>
+        <v>2020.5340000000001</v>
       </c>
       <c r="P22">
-        <v>662.64200000000005</v>
+        <v>522.75900000000001</v>
       </c>
       <c r="Q22">
-        <v>12.337</v>
+        <v>-150.59399999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>39600</v>
+        <v>31700</v>
       </c>
       <c r="T22">
-        <v>3159.2420000000002</v>
+        <v>2751.0039999999999</v>
       </c>
       <c r="U22">
-        <v>211.631</v>
+        <v>188.911</v>
       </c>
       <c r="V22">
-        <v>263.38600000000002</v>
+        <v>-53.31</v>
       </c>
       <c r="W22">
-        <v>-92.905000000000001</v>
+        <v>-54.332000000000001</v>
       </c>
       <c r="X22">
-        <v>-161.904</v>
+        <v>-76.088999999999999</v>
       </c>
       <c r="Y22">
-        <v>37.642000000000003</v>
+        <v>21.878</v>
       </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>161.273</v>
+        <v>108.99299999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>158.02500000000001</v>
+        <v>113.925</v>
       </c>
       <c r="D23">
-        <v>3718.2669999999998</v>
+        <v>2553.5520000000001</v>
       </c>
       <c r="E23">
-        <v>1981.6510000000001</v>
+        <v>1297.836</v>
       </c>
       <c r="F23">
-        <v>1104.471</v>
+        <v>803.47699999999998</v>
       </c>
       <c r="G23">
-        <v>5770.268</v>
+        <v>3831.4209999999998</v>
       </c>
       <c r="H23">
-        <v>8450.527</v>
+        <v>4815.4059999999999</v>
       </c>
       <c r="I23">
-        <v>2961.3180000000002</v>
+        <v>954.27599999999995</v>
       </c>
       <c r="J23">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K23">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-900</v>
+        <v>-0.88100000000000001</v>
       </c>
       <c r="N23">
-        <v>4211.9260000000004</v>
+        <v>1249.838</v>
       </c>
       <c r="O23">
-        <v>5206.8149999999996</v>
+        <v>2025.876</v>
       </c>
       <c r="P23">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="Q23">
-        <v>-6.4960000000000004</v>
+        <v>-38.74</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3243.712</v>
+        <v>2789.53</v>
       </c>
       <c r="U23">
-        <v>205.13499999999999</v>
+        <v>150.17099999999999</v>
       </c>
       <c r="V23">
-        <v>135.04499999999999</v>
+        <v>60.055</v>
       </c>
       <c r="W23">
-        <v>-92.596000000000004</v>
+        <v>-54.140999999999998</v>
       </c>
       <c r="X23">
-        <v>-64.468999999999994</v>
+        <v>-73.007000000000005</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>158.02500000000001</v>
+        <v>113.925</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>191.369</v>
+        <v>120.68</v>
       </c>
       <c r="D24">
-        <v>3899.6379999999999</v>
+        <v>2661.8049999999998</v>
       </c>
       <c r="E24">
-        <v>2031.0940000000001</v>
+        <v>1307.0709999999999</v>
       </c>
       <c r="F24">
-        <v>1165.452</v>
+        <v>825.18200000000002</v>
       </c>
       <c r="G24">
-        <v>5866.1419999999998</v>
+        <v>3851.098</v>
       </c>
       <c r="H24">
-        <v>8634.1090000000004</v>
+        <v>4845.9530000000004</v>
       </c>
       <c r="I24">
-        <v>3075.7689999999998</v>
+        <v>1018.914</v>
       </c>
       <c r="J24">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K24">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4406.17</v>
+        <v>1255.923</v>
       </c>
       <c r="O24">
-        <v>5383.88</v>
+        <v>2031.992</v>
       </c>
       <c r="P24">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="Q24">
-        <v>28.492000000000001</v>
+        <v>38.973999999999997</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3250.2289999999998</v>
+        <v>2813.9609999999998</v>
       </c>
       <c r="U24">
-        <v>233.62700000000001</v>
+        <v>189.14500000000001</v>
       </c>
       <c r="V24">
-        <v>395.447</v>
+        <v>184.55600000000001</v>
       </c>
       <c r="W24">
-        <v>-98.337999999999994</v>
+        <v>-58.284999999999997</v>
       </c>
       <c r="X24">
-        <v>-96.948999999999998</v>
+        <v>-116.998</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>191.369</v>
+        <v>120.68</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>185.32599999999999</v>
+        <v>121.333</v>
       </c>
       <c r="D25">
-        <v>3941.7429999999999</v>
+        <v>2699.6410000000001</v>
       </c>
       <c r="E25">
-        <v>2032.548</v>
+        <v>1301.384</v>
       </c>
       <c r="F25">
-        <v>1198.6010000000001</v>
+        <v>831.29499999999996</v>
       </c>
       <c r="G25">
-        <v>5908.482</v>
+        <v>3918.5309999999999</v>
       </c>
       <c r="H25">
-        <v>8749.3719999999994</v>
+        <v>4911.942</v>
       </c>
       <c r="I25">
-        <v>3099.4380000000001</v>
+        <v>1013.215</v>
       </c>
       <c r="J25">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K25">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4401.5309999999999</v>
+        <v>1276.3019999999999</v>
       </c>
       <c r="O25">
-        <v>5414.0780000000004</v>
+        <v>2067.36</v>
       </c>
       <c r="P25">
-        <v>775</v>
+        <v>500</v>
       </c>
       <c r="Q25">
-        <v>-8.4499999999999993</v>
+        <v>25.248999999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3335.2939999999999</v>
+        <v>2844.5819999999999</v>
       </c>
       <c r="U25">
-        <v>225.17699999999999</v>
+        <v>214.39400000000001</v>
       </c>
       <c r="V25">
-        <v>210.86</v>
+        <v>170.024</v>
       </c>
       <c r="W25">
-        <v>-97.974999999999994</v>
+        <v>-58.103999999999999</v>
       </c>
       <c r="X25">
-        <v>-122.768</v>
+        <v>-95.951999999999998</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>185.32599999999999</v>
+        <v>121.333</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>152.52000000000001</v>
+        <v>119.467</v>
       </c>
       <c r="D26">
-        <v>3780.0650000000001</v>
+        <v>2542.944</v>
       </c>
       <c r="E26">
-        <v>1938.5619999999999</v>
+        <v>1227.8050000000001</v>
       </c>
       <c r="F26">
-        <v>1131.0830000000001</v>
+        <v>644.54100000000005</v>
       </c>
       <c r="G26">
-        <v>5948.4309999999996</v>
+        <v>3835.127</v>
       </c>
       <c r="H26">
-        <v>8859.4</v>
+        <v>4496.9840000000004</v>
       </c>
       <c r="I26">
-        <v>3081.1109999999999</v>
+        <v>910.26300000000003</v>
       </c>
       <c r="J26">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K26">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,120 +2884,120 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>4244.1499999999996</v>
+        <v>1198.768</v>
       </c>
       <c r="O26">
-        <v>5652.0439999999999</v>
+        <v>1886.277</v>
       </c>
       <c r="P26">
-        <v>914.221</v>
+        <v>512.24800000000005</v>
       </c>
       <c r="Q26">
-        <v>17.702000000000002</v>
+        <v>-78.421000000000006</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="T26">
-        <v>3207.3560000000002</v>
+        <v>2610.7069999999999</v>
       </c>
       <c r="U26">
-        <v>242.87899999999999</v>
+        <v>135.97300000000001</v>
       </c>
       <c r="V26">
-        <v>204.726</v>
+        <v>18.864999999999998</v>
       </c>
       <c r="W26">
-        <v>-97.953999999999994</v>
+        <v>-57.521999999999998</v>
       </c>
       <c r="X26">
-        <v>-38.22</v>
+        <v>-54.771999999999998</v>
       </c>
       <c r="Y26">
-        <v>39.220999999999997</v>
+        <v>12.247999999999999</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>152.52000000000001</v>
+        <v>119.467</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>160.16</v>
+        <v>121.553</v>
       </c>
       <c r="D27">
-        <v>3905.6410000000001</v>
+        <v>2648.8429999999998</v>
       </c>
       <c r="E27">
-        <v>2084.8710000000001</v>
+        <v>1296.8</v>
       </c>
       <c r="F27">
-        <v>1155.721</v>
+        <v>789.94399999999996</v>
       </c>
       <c r="G27">
-        <v>6194.0619999999999</v>
+        <v>3962.444</v>
       </c>
       <c r="H27">
-        <v>9166.8259999999991</v>
+        <v>4626.0630000000001</v>
       </c>
       <c r="I27">
-        <v>3230.9850000000001</v>
+        <v>971.4</v>
       </c>
       <c r="J27">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K27">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-855</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>4579.8329999999996</v>
+        <v>1284.3109999999999</v>
       </c>
       <c r="O27">
-        <v>5934.482</v>
+        <v>1956.0650000000001</v>
       </c>
       <c r="P27">
-        <v>1025</v>
+        <v>500</v>
       </c>
       <c r="Q27">
-        <v>-64.962000000000003</v>
+        <v>114.10899999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3232.3440000000001</v>
+        <v>2669.998</v>
       </c>
       <c r="U27">
-        <v>177.917</v>
+        <v>250.08199999999999</v>
       </c>
       <c r="V27">
-        <v>101.82</v>
+        <v>206.05099999999999</v>
       </c>
       <c r="W27">
-        <v>-97.584000000000003</v>
+        <v>-57.545000000000002</v>
       </c>
       <c r="X27">
-        <v>-41.192</v>
+        <v>-69.83</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>160.16</v>
+        <v>121.553</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>189.97200000000001</v>
+        <v>130.12100000000001</v>
       </c>
       <c r="D28">
-        <v>4100.1779999999999</v>
+        <v>2769.527</v>
       </c>
       <c r="E28">
-        <v>2169.9699999999998</v>
+        <v>1322.973</v>
       </c>
       <c r="F28">
-        <v>1239.712</v>
+        <v>824.58500000000004</v>
       </c>
       <c r="G28">
-        <v>6301.4160000000002</v>
+        <v>4040.2869999999998</v>
       </c>
       <c r="H28">
-        <v>9412.1440000000002</v>
+        <v>4725.076</v>
       </c>
       <c r="I28">
-        <v>3302.9690000000001</v>
+        <v>1028.7049999999999</v>
       </c>
       <c r="J28">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K28">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4801.1670000000004</v>
+        <v>1285.338</v>
       </c>
       <c r="O28">
-        <v>6110.8010000000004</v>
+        <v>1964.394</v>
       </c>
       <c r="P28">
-        <v>1130</v>
+        <v>500</v>
       </c>
       <c r="Q28">
-        <v>25.228000000000002</v>
+        <v>24.478000000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3301.3429999999998</v>
+        <v>2760.6819999999998</v>
       </c>
       <c r="U28">
-        <v>203.14500000000001</v>
+        <v>274.56</v>
       </c>
       <c r="V28">
-        <v>243.464</v>
+        <v>146.709</v>
       </c>
       <c r="W28">
-        <v>-99.823999999999998</v>
+        <v>-62.173999999999999</v>
       </c>
       <c r="X28">
-        <v>-57.738</v>
+        <v>-88.9</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>189.97200000000001</v>
+        <v>130.12100000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>158.44200000000001</v>
+        <v>128.58000000000001</v>
       </c>
       <c r="D29">
-        <v>4095.9059999999999</v>
+        <v>2797.556</v>
       </c>
       <c r="E29">
-        <v>2155.9479999999999</v>
+        <v>1334.309</v>
       </c>
       <c r="F29">
-        <v>1226.8900000000001</v>
+        <v>824.48800000000006</v>
       </c>
       <c r="G29">
-        <v>6316.6080000000002</v>
+        <v>4133.375</v>
       </c>
       <c r="H29">
-        <v>9494.2340000000004</v>
+        <v>4835.0940000000001</v>
       </c>
       <c r="I29">
-        <v>3275.1550000000002</v>
+        <v>1088.201</v>
       </c>
       <c r="J29">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="K29">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4802.6670000000004</v>
+        <v>1368.607</v>
       </c>
       <c r="O29">
-        <v>6104.1059999999998</v>
+        <v>2060.357</v>
       </c>
       <c r="P29">
-        <v>1145</v>
+        <v>500</v>
       </c>
       <c r="Q29">
-        <v>6.9370000000000003</v>
+        <v>55.491999999999997</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3390.1280000000002</v>
+        <v>2774.7370000000001</v>
       </c>
       <c r="U29">
-        <v>210.08199999999999</v>
+        <v>330.05200000000002</v>
       </c>
       <c r="V29">
-        <v>197.07300000000001</v>
+        <v>255.96</v>
       </c>
       <c r="W29">
-        <v>-99.108999999999995</v>
+        <v>-62.206000000000003</v>
       </c>
       <c r="X29">
-        <v>-102.76</v>
+        <v>-161.04599999999999</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,39 +3172,39 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>158.44200000000001</v>
+        <v>128.58000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>108.18300000000001</v>
+        <v>126.08499999999999</v>
       </c>
       <c r="D30">
-        <v>4207.076</v>
+        <v>2627.2689999999998</v>
       </c>
       <c r="E30">
-        <v>2421.5630000000001</v>
+        <v>1216.22</v>
       </c>
       <c r="F30">
-        <v>1284.075</v>
+        <v>778.20600000000002</v>
       </c>
       <c r="G30">
-        <v>7312.893</v>
+        <v>4053.0120000000002</v>
       </c>
       <c r="H30">
-        <v>12412.380999999999</v>
+        <v>4774.0690000000004</v>
       </c>
       <c r="I30">
-        <v>3634.8589999999999</v>
+        <v>989.81600000000003</v>
       </c>
       <c r="J30">
-        <v>2550.02</v>
+        <v>250</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>5474.0249999999996</v>
+        <v>1547.9760000000001</v>
       </c>
       <c r="O30">
-        <v>8948.2250000000004</v>
+        <v>1991.123</v>
       </c>
       <c r="P30">
-        <v>3245.009</v>
+        <v>513.70699999999999</v>
       </c>
       <c r="Q30">
-        <v>104.81699999999999</v>
+        <v>-98.215000000000003</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>48000</v>
+        <v>32000</v>
       </c>
       <c r="T30">
-        <v>3464.1559999999999</v>
+        <v>2782.9459999999999</v>
       </c>
       <c r="U30">
-        <v>314.899</v>
+        <v>231.83699999999999</v>
       </c>
       <c r="V30">
-        <v>272.68599999999998</v>
+        <v>32.750999999999998</v>
       </c>
       <c r="W30">
-        <v>-98.957999999999998</v>
+        <v>-61.319000000000003</v>
       </c>
       <c r="X30">
-        <v>1073.749</v>
+        <v>-149.72</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>13.707000000000001</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>108.18300000000001</v>
+        <v>126.08499999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>176.57599999999999</v>
+        <v>123.54300000000001</v>
       </c>
       <c r="D31">
-        <v>4586.2939999999999</v>
+        <v>2739.473</v>
       </c>
       <c r="E31">
-        <v>2641.1509999999998</v>
+        <v>1303.787</v>
       </c>
       <c r="F31">
-        <v>1435.807</v>
+        <v>819.48299999999995</v>
       </c>
       <c r="G31">
-        <v>7581.6120000000001</v>
+        <v>4025.7330000000002</v>
       </c>
       <c r="H31">
-        <v>12759.394</v>
+        <v>4755.4179999999997</v>
       </c>
       <c r="I31">
-        <v>3773.1489999999999</v>
+        <v>1002.742</v>
       </c>
       <c r="J31">
-        <v>2564.1109999999999</v>
+        <v>250</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3296,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-1153.75</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>5757.4719999999998</v>
+        <v>1569.452</v>
       </c>
       <c r="O31">
-        <v>9198.0130000000008</v>
+        <v>2020.2819999999999</v>
       </c>
       <c r="P31">
-        <v>3315.7249999999999</v>
+        <v>500</v>
       </c>
       <c r="Q31">
-        <v>11.074</v>
+        <v>-70.317999999999998</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3561.3809999999999</v>
+        <v>2735.136</v>
       </c>
       <c r="U31">
-        <v>325.97300000000001</v>
+        <v>161.51900000000001</v>
       </c>
       <c r="V31">
-        <v>138.36699999999999</v>
+        <v>145.887</v>
       </c>
       <c r="W31">
-        <v>-99</v>
+        <v>-60.789000000000001</v>
       </c>
       <c r="X31">
-        <v>-55.484999999999999</v>
+        <v>-154.14500000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3338,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>176.57599999999999</v>
+        <v>123.54300000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>226.97200000000001</v>
+        <v>133.07300000000001</v>
       </c>
       <c r="D32">
-        <v>4822.0649999999996</v>
+        <v>2873.4850000000001</v>
       </c>
       <c r="E32">
-        <v>2669.6489999999999</v>
+        <v>1342.635</v>
       </c>
       <c r="F32">
-        <v>1521.586</v>
+        <v>852.21299999999997</v>
       </c>
       <c r="G32">
-        <v>7523.3689999999997</v>
+        <v>4062.768</v>
       </c>
       <c r="H32">
-        <v>12566.522000000001</v>
+        <v>4797.3429999999998</v>
       </c>
       <c r="I32">
-        <v>3831.2739999999999</v>
+        <v>1064.8820000000001</v>
       </c>
       <c r="J32">
-        <v>2490.5520000000001</v>
+        <v>250</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>5656.8940000000002</v>
+        <v>1581.3920000000001</v>
       </c>
       <c r="O32">
-        <v>9004.1949999999997</v>
+        <v>2032.8040000000001</v>
       </c>
       <c r="P32">
-        <v>3176.9670000000001</v>
+        <v>500</v>
       </c>
       <c r="Q32">
-        <v>29.167999999999999</v>
+        <v>-25.675000000000001</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3562.3270000000002</v>
+        <v>2764.5390000000002</v>
       </c>
       <c r="U32">
-        <v>355.14100000000002</v>
+        <v>135.84399999999999</v>
       </c>
       <c r="V32">
-        <v>316.70800000000003</v>
+        <v>131.31299999999999</v>
       </c>
       <c r="W32">
-        <v>-105.649</v>
+        <v>-64.265000000000001</v>
       </c>
       <c r="X32">
-        <v>-200.393</v>
+        <v>-120.371</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>226.97200000000001</v>
+        <v>133.07300000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>220.227</v>
+        <v>131.017</v>
       </c>
       <c r="D33">
-        <v>4722.9219999999996</v>
+        <v>2882.1149999999998</v>
       </c>
       <c r="E33">
-        <v>2655.8879999999999</v>
+        <v>1350.568</v>
       </c>
       <c r="F33">
-        <v>1484.2349999999999</v>
+        <v>849.005</v>
       </c>
       <c r="G33">
-        <v>7550.4949999999999</v>
+        <v>4073.143</v>
       </c>
       <c r="H33">
-        <v>12657.119000000001</v>
+        <v>4819.2579999999998</v>
       </c>
       <c r="I33">
-        <v>4036.0059999999999</v>
+        <v>1070.5129999999999</v>
       </c>
       <c r="J33">
-        <v>2463.4520000000002</v>
+        <v>250</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>5661.1890000000003</v>
+        <v>1625.6559999999999</v>
       </c>
       <c r="O33">
-        <v>8994.0400000000009</v>
+        <v>2081.7139999999999</v>
       </c>
       <c r="P33">
-        <v>2913.9450000000002</v>
+        <v>500</v>
       </c>
       <c r="Q33">
-        <v>3.964</v>
+        <v>-11.416</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3663.0790000000002</v>
+        <v>2737.5439999999999</v>
       </c>
       <c r="U33">
-        <v>359.10500000000002</v>
+        <v>124.428</v>
       </c>
       <c r="V33">
-        <v>470.45100000000002</v>
+        <v>191.80500000000001</v>
       </c>
       <c r="W33">
-        <v>-105.661</v>
+        <v>-63.750999999999998</v>
       </c>
       <c r="X33">
-        <v>-366.16899999999998</v>
+        <v>-141.47499999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,39 +3504,39 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>220.227</v>
+        <v>131.017</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>186.69900000000001</v>
+        <v>87.784000000000006</v>
       </c>
       <c r="D34">
-        <v>4603.7920000000004</v>
+        <v>2520.19</v>
       </c>
       <c r="E34">
-        <v>2493.636</v>
+        <v>1224.5250000000001</v>
       </c>
       <c r="F34">
-        <v>1536.38</v>
+        <v>751.78899999999999</v>
       </c>
       <c r="G34">
-        <v>7575.69</v>
+        <v>3871.42</v>
       </c>
       <c r="H34">
-        <v>12683.04</v>
+        <v>4786.3500000000004</v>
       </c>
       <c r="I34">
-        <v>3995.7890000000002</v>
+        <v>1009.423</v>
       </c>
       <c r="J34">
-        <v>2432.1329999999998</v>
+        <v>500</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,161 +3548,161 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>5900.7330000000002</v>
+        <v>1287.1030000000001</v>
       </c>
       <c r="O34">
-        <v>9211.0490000000009</v>
+        <v>2392.9720000000002</v>
       </c>
       <c r="P34">
-        <v>3149.625</v>
+        <v>512.70799999999997</v>
       </c>
       <c r="Q34">
-        <v>-25.558</v>
+        <v>-56.651000000000003</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>50000</v>
+        <v>30300</v>
       </c>
       <c r="T34">
-        <v>3471.991</v>
+        <v>2393.3780000000002</v>
       </c>
       <c r="U34">
-        <v>333.54700000000003</v>
+        <v>67.777000000000001</v>
       </c>
       <c r="V34">
-        <v>219.63800000000001</v>
+        <v>61.304000000000002</v>
       </c>
       <c r="W34">
-        <v>-105.673</v>
+        <v>-63.003</v>
       </c>
       <c r="X34">
-        <v>13.217000000000001</v>
+        <v>-56.582000000000001</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>12.708</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>186.69900000000001</v>
+        <v>87.784000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>160.25</v>
+        <v>89.159000000000006</v>
       </c>
       <c r="D35">
-        <v>4259.1289999999999</v>
+        <v>2444.4960000000001</v>
       </c>
       <c r="E35">
-        <v>2741.9160000000002</v>
+        <v>1211.337</v>
       </c>
       <c r="F35">
-        <v>1392.798</v>
+        <v>732.20100000000002</v>
       </c>
       <c r="G35">
-        <v>7886.3909999999996</v>
+        <v>3819.9070000000002</v>
       </c>
       <c r="H35">
-        <v>14070.53</v>
+        <v>4724.8549999999996</v>
       </c>
       <c r="I35">
-        <v>4058.2109999999998</v>
+        <v>964.26700000000005</v>
       </c>
       <c r="J35">
-        <v>2389.2440000000001</v>
+        <v>500</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="M35">
-        <v>-1092.115</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>6545.3339999999998</v>
+        <v>1257.374</v>
       </c>
       <c r="O35">
-        <v>10497.698</v>
+        <v>2316.4250000000002</v>
       </c>
       <c r="P35">
-        <v>4400.5320000000002</v>
+        <v>500</v>
       </c>
       <c r="Q35">
-        <v>23.378</v>
+        <v>65.504000000000005</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3572.8319999999999</v>
+        <v>2408.4299999999998</v>
       </c>
       <c r="U35">
-        <v>356.92500000000001</v>
+        <v>133.28100000000001</v>
       </c>
       <c r="V35">
-        <v>61.73</v>
+        <v>200.422</v>
       </c>
       <c r="W35">
-        <v>-105.369</v>
+        <v>-62.148000000000003</v>
       </c>
       <c r="X35">
-        <v>145.679</v>
+        <v>-114.122</v>
       </c>
       <c r="Y35">
-        <v>716.67700000000002</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>160.25</v>
+        <v>89.159000000000006</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>103.61</v>
       </c>
       <c r="D36">
-        <v>4457.9309999999996</v>
+        <v>2535.0450000000001</v>
       </c>
       <c r="E36">
-        <v>2836.875</v>
+        <v>1239.318</v>
       </c>
       <c r="F36">
-        <v>1482.704</v>
+        <v>744.85500000000002</v>
       </c>
       <c r="G36">
-        <v>8184.67</v>
+        <v>3916.0149999999999</v>
       </c>
       <c r="H36">
-        <v>14639.472</v>
+        <v>4854.9440000000004</v>
       </c>
       <c r="I36">
-        <v>4064.547</v>
+        <v>1063.26</v>
       </c>
       <c r="J36">
-        <v>2871.1060000000002</v>
+        <v>500</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>6498.2280000000001</v>
+        <v>1412.567</v>
       </c>
       <c r="O36">
-        <v>10951.496999999999</v>
+        <v>2339.2600000000002</v>
       </c>
       <c r="P36">
-        <v>4830.4920000000002</v>
+        <v>500</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>105.30800000000001</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3687.9749999999999</v>
+        <v>2515.6840000000002</v>
       </c>
       <c r="U36">
-        <v>562.55100000000004</v>
+        <v>238.589</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>288.40899999999999</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>-63.777999999999999</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>-61.78</v>
       </c>
       <c r="Y36">
-        <v>724.68200000000002</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>224.43</v>
+        <v>103.61</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>227.48699999999999</v>
+        <v>107.639</v>
       </c>
       <c r="D37">
-        <v>4525.2839999999997</v>
+        <v>2606.7570000000001</v>
       </c>
       <c r="E37">
-        <v>2739.971</v>
+        <v>1250.575</v>
       </c>
       <c r="F37">
-        <v>1505.2329999999999</v>
+        <v>765.24599999999998</v>
       </c>
       <c r="G37">
-        <v>8058.6710000000003</v>
+        <v>4034.2910000000002</v>
       </c>
       <c r="H37">
-        <v>14513.19</v>
+        <v>4977.241</v>
       </c>
       <c r="I37">
-        <v>4195.8689999999997</v>
+        <v>1124.2760000000001</v>
       </c>
       <c r="J37">
-        <v>2795.8780000000002</v>
+        <v>500</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>6372.8130000000001</v>
+        <v>1444.511</v>
       </c>
       <c r="O37">
-        <v>10848.453</v>
+        <v>2362.8989999999999</v>
       </c>
       <c r="P37">
-        <v>4519.6949999999997</v>
+        <v>500</v>
       </c>
       <c r="Q37">
-        <v>-111.276</v>
+        <v>124.544</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3664.7370000000001</v>
+        <v>2614.3420000000001</v>
       </c>
       <c r="U37">
-        <v>451.27499999999998</v>
+        <v>363.13299999999998</v>
       </c>
       <c r="V37">
-        <v>443.83699999999999</v>
+        <v>277.67200000000003</v>
       </c>
       <c r="W37">
-        <v>-111.38200000000001</v>
+        <v>-63.813000000000002</v>
       </c>
       <c r="X37">
-        <v>-618.61199999999997</v>
+        <v>-63.755000000000003</v>
       </c>
       <c r="Y37">
-        <v>797.16600000000005</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>227.48699999999999</v>
+        <v>107.639</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>8.9179999999999993</v>
+        <v>99.167000000000002</v>
       </c>
       <c r="D38">
-        <v>4279.8900000000003</v>
+        <v>2471.2139999999999</v>
       </c>
       <c r="E38">
-        <v>2440.252</v>
+        <v>1187.075</v>
       </c>
       <c r="F38">
-        <v>1478.9480000000001</v>
+        <v>767.46</v>
       </c>
       <c r="G38">
-        <v>7938.616</v>
+        <v>4032.828</v>
       </c>
       <c r="H38">
-        <v>14645.629000000001</v>
+        <v>5004.6890000000003</v>
       </c>
       <c r="I38">
-        <v>3948</v>
+        <v>1094.347</v>
       </c>
       <c r="J38">
-        <v>2802.056</v>
+        <v>500</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>6394.12</v>
+        <v>1408.2840000000001</v>
       </c>
       <c r="O38">
-        <v>10950.129000000001</v>
+        <v>2375.317</v>
       </c>
       <c r="P38">
-        <v>4462.6170000000002</v>
+        <v>513.50400000000002</v>
       </c>
       <c r="Q38">
-        <v>-174.28299999999999</v>
+        <v>-26.33</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>55000</v>
+        <v>29000</v>
       </c>
       <c r="T38">
-        <v>3695.5</v>
+        <v>2629.3719999999998</v>
       </c>
       <c r="U38">
-        <v>276.99200000000002</v>
+        <v>336.803</v>
       </c>
       <c r="V38">
-        <v>146.798</v>
+        <v>78.795000000000002</v>
       </c>
       <c r="W38">
-        <v>-110.78400000000001</v>
+        <v>-63.819000000000003</v>
       </c>
       <c r="X38">
-        <v>-156.51599999999999</v>
+        <v>-90.725999999999999</v>
       </c>
       <c r="Y38">
-        <v>756.51900000000001</v>
+        <v>13.504</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>8.9179999999999993</v>
+        <v>99.167000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>136.535</v>
+        <v>100.60899999999999</v>
       </c>
       <c r="D39">
-        <v>4092.5259999999998</v>
+        <v>2602.1149999999998</v>
       </c>
       <c r="E39">
-        <v>2705.192</v>
+        <v>1323.98</v>
       </c>
       <c r="F39">
-        <v>1388.1780000000001</v>
+        <v>760.47500000000002</v>
       </c>
       <c r="G39">
-        <v>7993.05</v>
+        <v>4146.2309999999998</v>
       </c>
       <c r="H39">
-        <v>14451.355</v>
+        <v>5168.7619999999997</v>
       </c>
       <c r="I39">
-        <v>4067.4</v>
+        <v>1185.1769999999999</v>
       </c>
       <c r="J39">
-        <v>2726.3910000000001</v>
+        <v>500</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1057.6669999999999</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>6581.22</v>
+        <v>1514.1289999999999</v>
       </c>
       <c r="O39">
-        <v>11028.324000000001</v>
+        <v>2483.1959999999999</v>
       </c>
       <c r="P39">
-        <v>4486.0959999999995</v>
+        <v>500</v>
       </c>
       <c r="Q39">
-        <v>77.477000000000004</v>
+        <v>-3.266</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3423.0309999999999</v>
+        <v>2685.5659999999998</v>
       </c>
       <c r="U39">
-        <v>354.46899999999999</v>
+        <v>333.53699999999998</v>
       </c>
       <c r="V39">
-        <v>74.06</v>
+        <v>139.64500000000001</v>
       </c>
       <c r="W39">
-        <v>-110.851</v>
+        <v>-63.543999999999997</v>
       </c>
       <c r="X39">
-        <v>53.456000000000003</v>
+        <v>-70.269000000000005</v>
       </c>
       <c r="Y39">
-        <v>803.56500000000005</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>136.535</v>
+        <v>100.60899999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>124.467</v>
       </c>
       <c r="D40">
-        <v>3823.2269999999999</v>
+        <v>2847.1860000000001</v>
       </c>
       <c r="E40">
-        <v>1823.357</v>
+        <v>1353.9179999999999</v>
       </c>
       <c r="F40">
-        <v>1290.4870000000001</v>
+        <v>822.31</v>
       </c>
       <c r="G40">
-        <v>7291.3280000000004</v>
+        <v>4210.4970000000003</v>
       </c>
       <c r="H40">
-        <v>13263.962</v>
+        <v>5219.3599999999997</v>
       </c>
       <c r="I40">
-        <v>3745.0309999999999</v>
+        <v>1286.681</v>
       </c>
       <c r="J40">
-        <v>2727.9290000000001</v>
+        <v>500</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>5968.73</v>
+        <v>1575.373</v>
       </c>
       <c r="O40">
-        <v>10393.074000000001</v>
+        <v>2546.1529999999998</v>
       </c>
       <c r="P40">
-        <v>3973.6610000000001</v>
+        <v>500</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>78.334999999999994</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>2870.8879999999999</v>
+        <v>2673.2069999999999</v>
       </c>
       <c r="U40">
-        <v>983.75900000000001</v>
+        <v>411.87200000000001</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>212.80699999999999</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-65.082999999999998</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>-115.026</v>
       </c>
       <c r="Y40">
-        <v>756.346</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-564.37199999999996</v>
+        <v>124.467</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>227.53100000000001</v>
+        <v>131.785</v>
       </c>
       <c r="D41">
-        <v>4370.0860000000002</v>
+        <v>2950.56</v>
       </c>
       <c r="E41">
-        <v>1952.2249999999999</v>
+        <v>1394.87</v>
       </c>
       <c r="F41">
-        <v>1528.066</v>
+        <v>853.03099999999995</v>
       </c>
       <c r="G41">
-        <v>7375.2849999999999</v>
+        <v>4391.3010000000004</v>
       </c>
       <c r="H41">
-        <v>13475.460999999999</v>
+        <v>5413.77</v>
       </c>
       <c r="I41">
-        <v>4030.319</v>
+        <v>1371.7180000000001</v>
       </c>
       <c r="J41">
-        <v>2700.616</v>
+        <v>500</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>5976.6980000000003</v>
+        <v>1720.885</v>
       </c>
       <c r="O41">
-        <v>10440.688</v>
+        <v>2635.9879999999998</v>
       </c>
       <c r="P41">
-        <v>3686.931</v>
+        <v>500</v>
       </c>
       <c r="Q41">
-        <v>-83.635999999999996</v>
+        <v>119.85899999999999</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>3034.7730000000001</v>
+        <v>2777.7820000000002</v>
       </c>
       <c r="U41">
-        <v>900.12300000000005</v>
+        <v>531.73099999999999</v>
       </c>
       <c r="V41">
-        <v>488.11900000000003</v>
+        <v>215.97</v>
       </c>
       <c r="W41">
-        <v>-113.967</v>
+        <v>-64.686000000000007</v>
       </c>
       <c r="X41">
-        <v>-501.85300000000001</v>
+        <v>-68.778999999999996</v>
       </c>
       <c r="Y41">
-        <v>779.46799999999996</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>227.53100000000001</v>
+        <v>131.785</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>118.65</v>
+      </c>
+      <c r="D42">
+        <v>2807.7280000000001</v>
+      </c>
+      <c r="E42">
+        <v>1364.4059999999999</v>
+      </c>
+      <c r="F42">
+        <v>817.12800000000004</v>
+      </c>
+      <c r="G42">
+        <v>4414.8869999999997</v>
+      </c>
+      <c r="H42">
+        <v>5465.0439999999999</v>
+      </c>
+      <c r="I42">
+        <v>1374.93</v>
+      </c>
+      <c r="J42">
+        <v>250</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1971.8140000000001</v>
+      </c>
+      <c r="O42">
+        <v>2662.33</v>
+      </c>
+      <c r="P42">
+        <v>529.13699999999994</v>
+      </c>
+      <c r="Q42">
+        <v>-1.7629999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>29500</v>
+      </c>
+      <c r="T42">
+        <v>2802.7139999999999</v>
+      </c>
+      <c r="U42">
+        <v>529.96799999999996</v>
+      </c>
+      <c r="V42">
+        <v>110.241</v>
+      </c>
+      <c r="W42">
+        <v>-64.584999999999994</v>
+      </c>
+      <c r="X42">
+        <v>-66.495000000000005</v>
+      </c>
+      <c r="Y42">
+        <v>29.137</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>118.65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>126.515</v>
+      </c>
+      <c r="D43">
+        <v>2974.1979999999999</v>
+      </c>
+      <c r="E43">
+        <v>1490.7439999999999</v>
+      </c>
+      <c r="F43">
+        <v>848.79399999999998</v>
+      </c>
+      <c r="G43">
+        <v>4495.2290000000003</v>
+      </c>
+      <c r="H43">
+        <v>5569.52</v>
+      </c>
+      <c r="I43">
+        <v>1369.5419999999999</v>
+      </c>
+      <c r="J43">
+        <v>250</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2003.636</v>
+      </c>
+      <c r="O43">
+        <v>2690.652</v>
+      </c>
+      <c r="P43">
+        <v>500</v>
+      </c>
+      <c r="Q43">
+        <v>-64.085999999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2878.8679999999999</v>
+      </c>
+      <c r="U43">
+        <v>465.88200000000001</v>
+      </c>
+      <c r="V43">
+        <v>53.411000000000001</v>
+      </c>
+      <c r="W43">
+        <v>-64.599999999999994</v>
+      </c>
+      <c r="X43">
+        <v>-72.557000000000002</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>126.515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>151.81200000000001</v>
+      </c>
+      <c r="D44">
+        <v>3184.9839999999999</v>
+      </c>
+      <c r="E44">
+        <v>1565.8889999999999</v>
+      </c>
+      <c r="F44">
+        <v>916.11400000000003</v>
+      </c>
+      <c r="G44">
+        <v>4633.2910000000002</v>
+      </c>
+      <c r="H44">
+        <v>5717.0010000000002</v>
+      </c>
+      <c r="I44">
+        <v>1492.0409999999999</v>
+      </c>
+      <c r="J44">
+        <v>250</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2107.415</v>
+      </c>
+      <c r="O44">
+        <v>2785.7049999999999</v>
+      </c>
+      <c r="P44">
+        <v>500</v>
+      </c>
+      <c r="Q44">
+        <v>50.845999999999997</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2931.2959999999998</v>
+      </c>
+      <c r="U44">
+        <v>516.72799999999995</v>
+      </c>
+      <c r="V44">
+        <v>196.54</v>
+      </c>
+      <c r="W44">
+        <v>-70.95</v>
+      </c>
+      <c r="X44">
+        <v>-115.30500000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>151.81200000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>151.83199999999999</v>
+      </c>
+      <c r="D45">
+        <v>3285.56</v>
+      </c>
+      <c r="E45">
+        <v>1531.046</v>
+      </c>
+      <c r="F45">
+        <v>948.53200000000004</v>
+      </c>
+      <c r="G45">
+        <v>4646.3130000000001</v>
+      </c>
+      <c r="H45">
+        <v>5784.7179999999998</v>
+      </c>
+      <c r="I45">
+        <v>1587.326</v>
+      </c>
+      <c r="J45">
+        <v>250</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2240.66</v>
+      </c>
+      <c r="O45">
+        <v>2893.3270000000002</v>
+      </c>
+      <c r="P45">
+        <v>500</v>
+      </c>
+      <c r="Q45">
+        <v>18.073</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2891.3910000000001</v>
+      </c>
+      <c r="U45">
+        <v>534.80100000000004</v>
+      </c>
+      <c r="V45">
+        <v>247.45699999999999</v>
+      </c>
+      <c r="W45">
+        <v>-70.686000000000007</v>
+      </c>
+      <c r="X45">
+        <v>-127.649</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>151.83199999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>134.95699999999999</v>
+      </c>
+      <c r="D46">
+        <v>3014.1350000000002</v>
+      </c>
+      <c r="E46">
+        <v>1461.011</v>
+      </c>
+      <c r="F46">
+        <v>892.6</v>
+      </c>
+      <c r="G46">
+        <v>4754.71</v>
+      </c>
+      <c r="H46">
+        <v>6202.7740000000003</v>
+      </c>
+      <c r="I46">
+        <v>1440.7619999999999</v>
+      </c>
+      <c r="J46">
+        <v>500</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2012.548</v>
+      </c>
+      <c r="O46">
+        <v>3449.183</v>
+      </c>
+      <c r="P46">
+        <v>534.18600000000004</v>
+      </c>
+      <c r="Q46">
+        <v>-9.7469999999999999</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>29800</v>
+      </c>
+      <c r="T46">
+        <v>2753.5909999999999</v>
+      </c>
+      <c r="U46">
+        <v>525.05399999999997</v>
+      </c>
+      <c r="V46">
+        <v>127.51900000000001</v>
+      </c>
+      <c r="W46">
+        <v>-70.132999999999996</v>
+      </c>
+      <c r="X46">
+        <v>-78.629000000000005</v>
+      </c>
+      <c r="Y46">
+        <v>34.186</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>134.95699999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>146.255</v>
+      </c>
+      <c r="D47">
+        <v>3181.288</v>
+      </c>
+      <c r="E47">
+        <v>1605.4690000000001</v>
+      </c>
+      <c r="F47">
+        <v>919.11099999999999</v>
+      </c>
+      <c r="G47">
+        <v>4601.5460000000003</v>
+      </c>
+      <c r="H47">
+        <v>6095.8289999999997</v>
+      </c>
+      <c r="I47">
+        <v>1559.874</v>
+      </c>
+      <c r="J47">
+        <v>500</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1931.3689999999999</v>
+      </c>
+      <c r="O47">
+        <v>3201.835</v>
+      </c>
+      <c r="P47">
+        <v>500</v>
+      </c>
+      <c r="Q47">
+        <v>-100.63</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2893.9940000000001</v>
+      </c>
+      <c r="U47">
+        <v>424.42399999999998</v>
+      </c>
+      <c r="V47">
+        <v>172.297</v>
+      </c>
+      <c r="W47">
+        <v>-70.019000000000005</v>
+      </c>
+      <c r="X47">
+        <v>-68.102000000000004</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>146.255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>168.61799999999999</v>
+      </c>
+      <c r="D48">
+        <v>3337.8359999999998</v>
+      </c>
+      <c r="E48">
+        <v>1605.6959999999999</v>
+      </c>
+      <c r="F48">
+        <v>972.28599999999994</v>
+      </c>
+      <c r="G48">
+        <v>4423.375</v>
+      </c>
+      <c r="H48">
+        <v>6184.9290000000001</v>
+      </c>
+      <c r="I48">
+        <v>1599.6949999999999</v>
+      </c>
+      <c r="J48">
+        <v>500</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1978.2560000000001</v>
+      </c>
+      <c r="O48">
+        <v>3253.107</v>
+      </c>
+      <c r="P48">
+        <v>500</v>
+      </c>
+      <c r="Q48">
+        <v>-252.84700000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2931.8220000000001</v>
+      </c>
+      <c r="U48">
+        <v>171.577</v>
+      </c>
+      <c r="V48">
+        <v>249.01599999999999</v>
+      </c>
+      <c r="W48">
+        <v>-77.168000000000006</v>
+      </c>
+      <c r="X48">
+        <v>-129.82900000000001</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>168.61799999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>172.94300000000001</v>
+      </c>
+      <c r="D49">
+        <v>3375.7779999999998</v>
+      </c>
+      <c r="E49">
+        <v>1606.297</v>
+      </c>
+      <c r="F49">
+        <v>976.03599999999994</v>
+      </c>
+      <c r="G49">
+        <v>4664.5749999999998</v>
+      </c>
+      <c r="H49">
+        <v>6445.8819999999996</v>
+      </c>
+      <c r="I49">
+        <v>1754.2529999999999</v>
+      </c>
+      <c r="J49">
+        <v>500</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>2101.6170000000002</v>
+      </c>
+      <c r="O49">
+        <v>3379.7130000000002</v>
+      </c>
+      <c r="P49">
+        <v>500</v>
+      </c>
+      <c r="Q49">
+        <v>226.541</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3066.1689999999999</v>
+      </c>
+      <c r="U49">
+        <v>398.11799999999999</v>
+      </c>
+      <c r="V49">
+        <v>343.50700000000001</v>
+      </c>
+      <c r="W49">
+        <v>-76.983000000000004</v>
+      </c>
+      <c r="X49">
+        <v>-79.816000000000003</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>172.94300000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>160.22499999999999</v>
+      </c>
+      <c r="D50">
+        <v>3118.9659999999999</v>
+      </c>
+      <c r="E50">
+        <v>1490.028</v>
+      </c>
+      <c r="F50">
+        <v>910.65800000000002</v>
+      </c>
+      <c r="G50">
+        <v>4820.1310000000003</v>
+      </c>
+      <c r="H50">
+        <v>6807.0609999999997</v>
+      </c>
+      <c r="I50">
+        <v>1681.9</v>
+      </c>
+      <c r="J50">
+        <v>250</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2487.6379999999999</v>
+      </c>
+      <c r="O50">
+        <v>3798.8820000000001</v>
+      </c>
+      <c r="P50">
+        <v>533.74800000000005</v>
+      </c>
+      <c r="Q50">
+        <v>4.9770000000000003</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>31900</v>
+      </c>
+      <c r="T50">
+        <v>3008.1790000000001</v>
+      </c>
+      <c r="U50">
+        <v>403.09500000000003</v>
+      </c>
+      <c r="V50">
+        <v>141.61799999999999</v>
+      </c>
+      <c r="W50">
+        <v>-76.813000000000002</v>
+      </c>
+      <c r="X50">
+        <v>-101.087</v>
+      </c>
+      <c r="Y50">
+        <v>33.747999999999998</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>160.22499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>144.38900000000001</v>
+      </c>
+      <c r="D51">
+        <v>3198.8020000000001</v>
+      </c>
+      <c r="E51">
+        <v>1624.954</v>
+      </c>
+      <c r="F51">
+        <v>921.74800000000005</v>
+      </c>
+      <c r="G51">
+        <v>5351.6040000000003</v>
+      </c>
+      <c r="H51">
+        <v>7338.4620000000004</v>
+      </c>
+      <c r="I51">
+        <v>1800.7260000000001</v>
+      </c>
+      <c r="J51">
+        <v>250</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-25</v>
+      </c>
+      <c r="N51">
+        <v>3023.3139999999999</v>
+      </c>
+      <c r="O51">
+        <v>4264.0190000000002</v>
+      </c>
+      <c r="P51">
+        <v>914.74199999999996</v>
+      </c>
+      <c r="Q51">
+        <v>438.79899999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3074.4430000000002</v>
+      </c>
+      <c r="U51">
+        <v>841.89400000000001</v>
+      </c>
+      <c r="V51">
+        <v>116.378</v>
+      </c>
+      <c r="W51">
+        <v>-76.641000000000005</v>
+      </c>
+      <c r="X51">
+        <v>337.40600000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>144.38900000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>216.357</v>
+      </c>
+      <c r="D52">
+        <v>3675.9969999999998</v>
+      </c>
+      <c r="E52">
+        <v>1759.1759999999999</v>
+      </c>
+      <c r="F52">
+        <v>1105.1079999999999</v>
+      </c>
+      <c r="G52">
+        <v>5107.741</v>
+      </c>
+      <c r="H52">
+        <v>7660.3130000000001</v>
+      </c>
+      <c r="I52">
+        <v>2064.8780000000002</v>
+      </c>
+      <c r="J52">
+        <v>250</v>
+      </c>
+      <c r="K52">
+        <v>400.10199999999998</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3322.9470000000001</v>
+      </c>
+      <c r="O52">
+        <v>4574.174</v>
+      </c>
+      <c r="P52">
+        <v>900.10199999999998</v>
+      </c>
+      <c r="Q52">
+        <v>-645.12400000000002</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>3086.1390000000001</v>
+      </c>
+      <c r="U52">
+        <v>196.77</v>
+      </c>
+      <c r="V52">
+        <v>350.7</v>
+      </c>
+      <c r="W52">
+        <v>-83.266999999999996</v>
+      </c>
+      <c r="X52">
+        <v>-354.61799999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>216.357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>173.74600000000001</v>
+      </c>
+      <c r="D53">
+        <v>3685.2429999999999</v>
+      </c>
+      <c r="E53">
+        <v>1759.5170000000001</v>
+      </c>
+      <c r="F53">
+        <v>1103.923</v>
+      </c>
+      <c r="G53">
+        <v>5295.4750000000004</v>
+      </c>
+      <c r="H53">
+        <v>7943.9030000000002</v>
+      </c>
+      <c r="I53">
+        <v>2213.19</v>
+      </c>
+      <c r="J53">
+        <v>250</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3454.0940000000001</v>
+      </c>
+      <c r="O53">
+        <v>4790.7280000000001</v>
+      </c>
+      <c r="P53">
+        <v>833.89599999999996</v>
+      </c>
+      <c r="Q53">
+        <v>124.1</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>3153.1750000000002</v>
+      </c>
+      <c r="U53">
+        <v>320.87</v>
+      </c>
+      <c r="V53">
+        <v>370.40699999999998</v>
+      </c>
+      <c r="W53">
+        <v>-83.353999999999999</v>
+      </c>
+      <c r="X53">
+        <v>-195.73500000000001</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>173.74600000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>150.46700000000001</v>
+      </c>
+      <c r="D54">
+        <v>3517.8009999999999</v>
+      </c>
+      <c r="E54">
+        <v>1664.819</v>
+      </c>
+      <c r="F54">
+        <v>1092.1410000000001</v>
+      </c>
+      <c r="G54">
+        <v>5221.491</v>
+      </c>
+      <c r="H54">
+        <v>7680.2969999999996</v>
+      </c>
+      <c r="I54">
+        <v>2269.6709999999998</v>
+      </c>
+      <c r="J54">
+        <v>500</v>
+      </c>
+      <c r="K54">
+        <v>264.65800000000002</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3183.0439999999999</v>
+      </c>
+      <c r="O54">
+        <v>4321.5290000000005</v>
+      </c>
+      <c r="P54">
+        <v>792.47299999999996</v>
+      </c>
+      <c r="Q54">
+        <v>-123.977</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>37500</v>
+      </c>
+      <c r="T54">
+        <v>3358.768</v>
+      </c>
+      <c r="U54">
+        <v>196.893</v>
+      </c>
+      <c r="V54">
+        <v>219.24600000000001</v>
+      </c>
+      <c r="W54">
+        <v>-82.954999999999998</v>
+      </c>
+      <c r="X54">
+        <v>-212.17</v>
+      </c>
+      <c r="Y54">
+        <v>27.815000000000001</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>150.46700000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>157.48400000000001</v>
+      </c>
+      <c r="D55">
+        <v>3624.8969999999999</v>
+      </c>
+      <c r="E55">
+        <v>1828.309</v>
+      </c>
+      <c r="F55">
+        <v>1084.6300000000001</v>
+      </c>
+      <c r="G55">
+        <v>5346.4309999999996</v>
+      </c>
+      <c r="H55">
+        <v>7982.3739999999998</v>
+      </c>
+      <c r="I55">
+        <v>2335.3270000000002</v>
+      </c>
+      <c r="J55">
+        <v>500</v>
+      </c>
+      <c r="K55">
+        <v>399.75599999999997</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-610.60400000000004</v>
+      </c>
+      <c r="N55">
+        <v>3422.7379999999998</v>
+      </c>
+      <c r="O55">
+        <v>4571.165</v>
+      </c>
+      <c r="P55">
+        <v>899.75599999999997</v>
+      </c>
+      <c r="Q55">
+        <v>-93.421000000000006</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3411.2089999999998</v>
+      </c>
+      <c r="U55">
+        <v>103.47199999999999</v>
+      </c>
+      <c r="V55">
+        <v>59.779000000000003</v>
+      </c>
+      <c r="W55">
+        <v>-82.75</v>
+      </c>
+      <c r="X55">
+        <v>23.318999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>157.48400000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>197.727</v>
+      </c>
+      <c r="D56">
+        <v>3908.3870000000002</v>
+      </c>
+      <c r="E56">
+        <v>1909.268</v>
+      </c>
+      <c r="F56">
+        <v>1179.1679999999999</v>
+      </c>
+      <c r="G56">
+        <v>5512.3609999999999</v>
+      </c>
+      <c r="H56">
+        <v>8251.5480000000007</v>
+      </c>
+      <c r="I56">
+        <v>2489.5700000000002</v>
+      </c>
+      <c r="J56">
+        <v>500</v>
+      </c>
+      <c r="K56">
+        <v>306.358</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>3506.8539999999998</v>
+      </c>
+      <c r="O56">
+        <v>4714.0540000000001</v>
+      </c>
+      <c r="P56">
+        <v>806.35799999999995</v>
+      </c>
+      <c r="Q56">
+        <v>49.390999999999998</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3537.4940000000001</v>
+      </c>
+      <c r="U56">
+        <v>152.863</v>
+      </c>
+      <c r="V56">
+        <v>307.32299999999998</v>
+      </c>
+      <c r="W56">
+        <v>-88.421000000000006</v>
+      </c>
+      <c r="X56">
+        <v>-216.62100000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>197.727</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>190.51599999999999</v>
+      </c>
+      <c r="D57">
+        <v>3985.9090000000001</v>
+      </c>
+      <c r="E57">
+        <v>1976.056</v>
+      </c>
+      <c r="F57">
+        <v>1183.422</v>
+      </c>
+      <c r="G57">
+        <v>5585.3770000000004</v>
+      </c>
+      <c r="H57">
+        <v>8341.4570000000003</v>
+      </c>
+      <c r="I57">
+        <v>2549.1930000000002</v>
+      </c>
+      <c r="J57">
+        <v>500</v>
+      </c>
+      <c r="K57">
+        <v>335.39400000000001</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3635.7820000000002</v>
+      </c>
+      <c r="O57">
+        <v>4833.3090000000002</v>
+      </c>
+      <c r="P57">
+        <v>835.39400000000001</v>
+      </c>
+      <c r="Q57">
+        <v>-17.326000000000001</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3508.1480000000001</v>
+      </c>
+      <c r="U57">
+        <v>135.53700000000001</v>
+      </c>
+      <c r="V57">
+        <v>222.221</v>
+      </c>
+      <c r="W57">
+        <v>-88.194000000000003</v>
+      </c>
+      <c r="X57">
+        <v>-104.637</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>190.51599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>165.559</v>
+      </c>
+      <c r="D58">
+        <v>3822.4540000000002</v>
+      </c>
+      <c r="E58">
+        <v>1872.365</v>
+      </c>
+      <c r="F58">
+        <v>1146.5409999999999</v>
+      </c>
+      <c r="G58">
+        <v>5592.5249999999996</v>
+      </c>
+      <c r="H58">
+        <v>8246.2379999999994</v>
+      </c>
+      <c r="I58">
+        <v>2554.759</v>
+      </c>
+      <c r="J58">
+        <v>500</v>
+      </c>
+      <c r="K58">
+        <v>265.46600000000001</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3584.1149999999998</v>
+      </c>
+      <c r="O58">
+        <v>4933.8739999999998</v>
+      </c>
+      <c r="P58">
+        <v>805.50599999999997</v>
+      </c>
+      <c r="Q58">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>39000</v>
+      </c>
+      <c r="T58">
+        <v>3312.364</v>
+      </c>
+      <c r="U58">
+        <v>137.72999999999999</v>
+      </c>
+      <c r="V58">
+        <v>200.822</v>
+      </c>
+      <c r="W58">
+        <v>-87.906000000000006</v>
+      </c>
+      <c r="X58">
+        <v>-157.501</v>
+      </c>
+      <c r="Y58">
+        <v>40.04</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>165.559</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>161.01</v>
+      </c>
+      <c r="D59">
+        <v>3736.0509999999999</v>
+      </c>
+      <c r="E59">
+        <v>1978.2329999999999</v>
+      </c>
+      <c r="F59">
+        <v>1112.819</v>
+      </c>
+      <c r="G59">
+        <v>5634.6989999999996</v>
+      </c>
+      <c r="H59">
+        <v>8238.3549999999996</v>
+      </c>
+      <c r="I59">
+        <v>2608.491</v>
+      </c>
+      <c r="J59">
+        <v>500</v>
+      </c>
+      <c r="K59">
+        <v>393.697</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-650</v>
+      </c>
+      <c r="N59">
+        <v>3759.3609999999999</v>
+      </c>
+      <c r="O59">
+        <v>5047.3130000000001</v>
+      </c>
+      <c r="P59">
+        <v>893.697</v>
+      </c>
+      <c r="Q59">
+        <v>28.765000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3191.0419999999999</v>
+      </c>
+      <c r="U59">
+        <v>166.495</v>
+      </c>
+      <c r="V59">
+        <v>122.512</v>
+      </c>
+      <c r="W59">
+        <v>-88.039000000000001</v>
+      </c>
+      <c r="X59">
+        <v>-42.451000000000001</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>161.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>195.37299999999999</v>
+      </c>
+      <c r="D60">
+        <v>3940.4009999999998</v>
+      </c>
+      <c r="E60">
+        <v>2008.4449999999999</v>
+      </c>
+      <c r="F60">
+        <v>1178.33</v>
+      </c>
+      <c r="G60">
+        <v>5763.52</v>
+      </c>
+      <c r="H60">
+        <v>8413.6329999999998</v>
+      </c>
+      <c r="I60">
+        <v>2743.444</v>
+      </c>
+      <c r="J60">
+        <v>500</v>
+      </c>
+      <c r="K60">
+        <v>350</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3867.6219999999998</v>
+      </c>
+      <c r="O60">
+        <v>5158.1350000000002</v>
+      </c>
+      <c r="P60">
+        <v>850</v>
+      </c>
+      <c r="Q60">
+        <v>57.344999999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3255.498</v>
+      </c>
+      <c r="U60">
+        <v>223.84</v>
+      </c>
+      <c r="V60">
+        <v>331.596</v>
+      </c>
+      <c r="W60">
+        <v>-93.843999999999994</v>
+      </c>
+      <c r="X60">
+        <v>-203.232</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>195.37299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>188.01599999999999</v>
+      </c>
+      <c r="D61">
+        <v>3921.8020000000001</v>
+      </c>
+      <c r="E61">
+        <v>1963.1579999999999</v>
+      </c>
+      <c r="F61">
+        <v>1169.2249999999999</v>
+      </c>
+      <c r="G61">
+        <v>5623.482</v>
+      </c>
+      <c r="H61">
+        <v>8203.1280000000006</v>
+      </c>
+      <c r="I61">
+        <v>2851.0219999999999</v>
+      </c>
+      <c r="J61">
+        <v>500</v>
+      </c>
+      <c r="K61">
+        <v>125</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3764.0680000000002</v>
+      </c>
+      <c r="O61">
+        <v>5032.1040000000003</v>
+      </c>
+      <c r="P61">
+        <v>625</v>
+      </c>
+      <c r="Q61">
+        <v>-24.545999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3171.0239999999999</v>
+      </c>
+      <c r="U61">
+        <v>199.29400000000001</v>
+      </c>
+      <c r="V61">
+        <v>441.87900000000002</v>
+      </c>
+      <c r="W61">
+        <v>-93.495999999999995</v>
+      </c>
+      <c r="X61">
+        <v>-398.48700000000002</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>188.01599999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>161.273</v>
+      </c>
+      <c r="D62">
+        <v>3681.79</v>
+      </c>
+      <c r="E62">
+        <v>1822.4190000000001</v>
+      </c>
+      <c r="F62">
+        <v>1095.4780000000001</v>
+      </c>
+      <c r="G62">
+        <v>5555.3159999999998</v>
+      </c>
+      <c r="H62">
+        <v>8144.7709999999997</v>
+      </c>
+      <c r="I62">
+        <v>2821.5259999999998</v>
+      </c>
+      <c r="J62">
+        <v>250</v>
+      </c>
+      <c r="K62">
+        <v>125</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3940.654</v>
+      </c>
+      <c r="O62">
+        <v>4985.5290000000005</v>
+      </c>
+      <c r="P62">
+        <v>662.64200000000005</v>
+      </c>
+      <c r="Q62">
+        <v>12.337</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>39600</v>
+      </c>
+      <c r="T62">
+        <v>3159.2420000000002</v>
+      </c>
+      <c r="U62">
+        <v>211.631</v>
+      </c>
+      <c r="V62">
+        <v>263.38600000000002</v>
+      </c>
+      <c r="W62">
+        <v>-92.905000000000001</v>
+      </c>
+      <c r="X62">
+        <v>-161.904</v>
+      </c>
+      <c r="Y62">
+        <v>37.642000000000003</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>161.273</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>158.02500000000001</v>
+      </c>
+      <c r="D63">
+        <v>3718.2669999999998</v>
+      </c>
+      <c r="E63">
+        <v>1981.6510000000001</v>
+      </c>
+      <c r="F63">
+        <v>1104.471</v>
+      </c>
+      <c r="G63">
+        <v>5770.268</v>
+      </c>
+      <c r="H63">
+        <v>8450.527</v>
+      </c>
+      <c r="I63">
+        <v>2961.3180000000002</v>
+      </c>
+      <c r="J63">
+        <v>250</v>
+      </c>
+      <c r="K63">
+        <v>200</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-900</v>
+      </c>
+      <c r="N63">
+        <v>4211.9260000000004</v>
+      </c>
+      <c r="O63">
+        <v>5206.8149999999996</v>
+      </c>
+      <c r="P63">
+        <v>700</v>
+      </c>
+      <c r="Q63">
+        <v>-6.4960000000000004</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3243.712</v>
+      </c>
+      <c r="U63">
+        <v>205.13499999999999</v>
+      </c>
+      <c r="V63">
+        <v>135.04499999999999</v>
+      </c>
+      <c r="W63">
+        <v>-92.596000000000004</v>
+      </c>
+      <c r="X63">
+        <v>-64.468999999999994</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>158.02500000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>191.369</v>
+      </c>
+      <c r="D64">
+        <v>3899.6379999999999</v>
+      </c>
+      <c r="E64">
+        <v>2031.0940000000001</v>
+      </c>
+      <c r="F64">
+        <v>1165.452</v>
+      </c>
+      <c r="G64">
+        <v>5866.1419999999998</v>
+      </c>
+      <c r="H64">
+        <v>8634.1090000000004</v>
+      </c>
+      <c r="I64">
+        <v>3075.7689999999998</v>
+      </c>
+      <c r="J64">
+        <v>250</v>
+      </c>
+      <c r="K64">
+        <v>275</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4406.17</v>
+      </c>
+      <c r="O64">
+        <v>5383.88</v>
+      </c>
+      <c r="P64">
+        <v>775</v>
+      </c>
+      <c r="Q64">
+        <v>28.492000000000001</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3250.2289999999998</v>
+      </c>
+      <c r="U64">
+        <v>233.62700000000001</v>
+      </c>
+      <c r="V64">
+        <v>395.447</v>
+      </c>
+      <c r="W64">
+        <v>-98.337999999999994</v>
+      </c>
+      <c r="X64">
+        <v>-96.948999999999998</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>191.369</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>185.32599999999999</v>
+      </c>
+      <c r="D65">
+        <v>3941.7429999999999</v>
+      </c>
+      <c r="E65">
+        <v>2032.548</v>
+      </c>
+      <c r="F65">
+        <v>1198.6010000000001</v>
+      </c>
+      <c r="G65">
+        <v>5908.482</v>
+      </c>
+      <c r="H65">
+        <v>8749.3719999999994</v>
+      </c>
+      <c r="I65">
+        <v>3099.4380000000001</v>
+      </c>
+      <c r="J65">
+        <v>300</v>
+      </c>
+      <c r="K65">
+        <v>225</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>4401.5309999999999</v>
+      </c>
+      <c r="O65">
+        <v>5414.0780000000004</v>
+      </c>
+      <c r="P65">
+        <v>775</v>
+      </c>
+      <c r="Q65">
+        <v>-8.4499999999999993</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3335.2939999999999</v>
+      </c>
+      <c r="U65">
+        <v>225.17699999999999</v>
+      </c>
+      <c r="V65">
+        <v>210.86</v>
+      </c>
+      <c r="W65">
+        <v>-97.974999999999994</v>
+      </c>
+      <c r="X65">
+        <v>-122.768</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>185.32599999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>152.52000000000001</v>
+      </c>
+      <c r="D66">
+        <v>3780.0650000000001</v>
+      </c>
+      <c r="E66">
+        <v>1938.5619999999999</v>
+      </c>
+      <c r="F66">
+        <v>1131.0830000000001</v>
+      </c>
+      <c r="G66">
+        <v>5948.4309999999996</v>
+      </c>
+      <c r="H66">
+        <v>8859.4</v>
+      </c>
+      <c r="I66">
+        <v>3081.1109999999999</v>
+      </c>
+      <c r="J66">
+        <v>550</v>
+      </c>
+      <c r="K66">
+        <v>325</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>4244.1499999999996</v>
+      </c>
+      <c r="O66">
+        <v>5652.0439999999999</v>
+      </c>
+      <c r="P66">
+        <v>914.221</v>
+      </c>
+      <c r="Q66">
+        <v>17.702000000000002</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>40000</v>
+      </c>
+      <c r="T66">
+        <v>3207.3560000000002</v>
+      </c>
+      <c r="U66">
+        <v>242.87899999999999</v>
+      </c>
+      <c r="V66">
+        <v>204.726</v>
+      </c>
+      <c r="W66">
+        <v>-97.953999999999994</v>
+      </c>
+      <c r="X66">
+        <v>-38.22</v>
+      </c>
+      <c r="Y66">
+        <v>39.220999999999997</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>152.52000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>160.16</v>
+      </c>
+      <c r="D67">
+        <v>3905.6410000000001</v>
+      </c>
+      <c r="E67">
+        <v>2084.8710000000001</v>
+      </c>
+      <c r="F67">
+        <v>1155.721</v>
+      </c>
+      <c r="G67">
+        <v>6194.0619999999999</v>
+      </c>
+      <c r="H67">
+        <v>9166.8259999999991</v>
+      </c>
+      <c r="I67">
+        <v>3230.9850000000001</v>
+      </c>
+      <c r="J67">
+        <v>550</v>
+      </c>
+      <c r="K67">
+        <v>475</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-855</v>
+      </c>
+      <c r="N67">
+        <v>4579.8329999999996</v>
+      </c>
+      <c r="O67">
+        <v>5934.482</v>
+      </c>
+      <c r="P67">
+        <v>1025</v>
+      </c>
+      <c r="Q67">
+        <v>-64.962000000000003</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3232.3440000000001</v>
+      </c>
+      <c r="U67">
+        <v>177.917</v>
+      </c>
+      <c r="V67">
+        <v>101.82</v>
+      </c>
+      <c r="W67">
+        <v>-97.584000000000003</v>
+      </c>
+      <c r="X67">
+        <v>-41.192</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>160.16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>189.97200000000001</v>
+      </c>
+      <c r="D68">
+        <v>4100.1779999999999</v>
+      </c>
+      <c r="E68">
+        <v>2169.9699999999998</v>
+      </c>
+      <c r="F68">
+        <v>1239.712</v>
+      </c>
+      <c r="G68">
+        <v>6301.4160000000002</v>
+      </c>
+      <c r="H68">
+        <v>9412.1440000000002</v>
+      </c>
+      <c r="I68">
+        <v>3302.9690000000001</v>
+      </c>
+      <c r="J68">
+        <v>550</v>
+      </c>
+      <c r="K68">
+        <v>580</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4801.1670000000004</v>
+      </c>
+      <c r="O68">
+        <v>6110.8010000000004</v>
+      </c>
+      <c r="P68">
+        <v>1130</v>
+      </c>
+      <c r="Q68">
+        <v>25.228000000000002</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3301.3429999999998</v>
+      </c>
+      <c r="U68">
+        <v>203.14500000000001</v>
+      </c>
+      <c r="V68">
+        <v>243.464</v>
+      </c>
+      <c r="W68">
+        <v>-99.823999999999998</v>
+      </c>
+      <c r="X68">
+        <v>-57.738</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>189.97200000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>158.44200000000001</v>
+      </c>
+      <c r="D69">
+        <v>4095.9059999999999</v>
+      </c>
+      <c r="E69">
+        <v>2155.9479999999999</v>
+      </c>
+      <c r="F69">
+        <v>1226.8900000000001</v>
+      </c>
+      <c r="G69">
+        <v>6316.6080000000002</v>
+      </c>
+      <c r="H69">
+        <v>9494.2340000000004</v>
+      </c>
+      <c r="I69">
+        <v>3275.1550000000002</v>
+      </c>
+      <c r="J69">
+        <v>550</v>
+      </c>
+      <c r="K69">
+        <v>595</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4802.6670000000004</v>
+      </c>
+      <c r="O69">
+        <v>6104.1059999999998</v>
+      </c>
+      <c r="P69">
+        <v>1145</v>
+      </c>
+      <c r="Q69">
+        <v>6.9370000000000003</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3390.1280000000002</v>
+      </c>
+      <c r="U69">
+        <v>210.08199999999999</v>
+      </c>
+      <c r="V69">
+        <v>197.07300000000001</v>
+      </c>
+      <c r="W69">
+        <v>-99.108999999999995</v>
+      </c>
+      <c r="X69">
+        <v>-102.76</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>158.44200000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>108.18300000000001</v>
+      </c>
+      <c r="D70">
+        <v>4207.076</v>
+      </c>
+      <c r="E70">
+        <v>2421.5630000000001</v>
+      </c>
+      <c r="F70">
+        <v>1284.075</v>
+      </c>
+      <c r="G70">
+        <v>7312.893</v>
+      </c>
+      <c r="H70">
+        <v>12412.380999999999</v>
+      </c>
+      <c r="I70">
+        <v>3634.8589999999999</v>
+      </c>
+      <c r="J70">
+        <v>2550.02</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>5474.0249999999996</v>
+      </c>
+      <c r="O70">
+        <v>8948.2250000000004</v>
+      </c>
+      <c r="P70">
+        <v>3245.009</v>
+      </c>
+      <c r="Q70">
+        <v>104.81699999999999</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>48000</v>
+      </c>
+      <c r="T70">
+        <v>3464.1559999999999</v>
+      </c>
+      <c r="U70">
+        <v>314.899</v>
+      </c>
+      <c r="V70">
+        <v>272.68599999999998</v>
+      </c>
+      <c r="W70">
+        <v>-98.957999999999998</v>
+      </c>
+      <c r="X70">
+        <v>1073.749</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>108.18300000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>176.57599999999999</v>
+      </c>
+      <c r="D71">
+        <v>4586.2939999999999</v>
+      </c>
+      <c r="E71">
+        <v>2641.1509999999998</v>
+      </c>
+      <c r="F71">
+        <v>1435.807</v>
+      </c>
+      <c r="G71">
+        <v>7581.6120000000001</v>
+      </c>
+      <c r="H71">
+        <v>12759.394</v>
+      </c>
+      <c r="I71">
+        <v>3773.1489999999999</v>
+      </c>
+      <c r="J71">
+        <v>2564.1109999999999</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-1153.75</v>
+      </c>
+      <c r="N71">
+        <v>5757.4719999999998</v>
+      </c>
+      <c r="O71">
+        <v>9198.0130000000008</v>
+      </c>
+      <c r="P71">
+        <v>3315.7249999999999</v>
+      </c>
+      <c r="Q71">
+        <v>11.074</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3561.3809999999999</v>
+      </c>
+      <c r="U71">
+        <v>325.97300000000001</v>
+      </c>
+      <c r="V71">
+        <v>138.36699999999999</v>
+      </c>
+      <c r="W71">
+        <v>-99</v>
+      </c>
+      <c r="X71">
+        <v>-55.484999999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>176.57599999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>226.97200000000001</v>
+      </c>
+      <c r="D72">
+        <v>4822.0649999999996</v>
+      </c>
+      <c r="E72">
+        <v>2669.6489999999999</v>
+      </c>
+      <c r="F72">
+        <v>1521.586</v>
+      </c>
+      <c r="G72">
+        <v>7523.3689999999997</v>
+      </c>
+      <c r="H72">
+        <v>12566.522000000001</v>
+      </c>
+      <c r="I72">
+        <v>3831.2739999999999</v>
+      </c>
+      <c r="J72">
+        <v>2490.5520000000001</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>5656.8940000000002</v>
+      </c>
+      <c r="O72">
+        <v>9004.1949999999997</v>
+      </c>
+      <c r="P72">
+        <v>3176.9670000000001</v>
+      </c>
+      <c r="Q72">
+        <v>29.167999999999999</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3562.3270000000002</v>
+      </c>
+      <c r="U72">
+        <v>355.14100000000002</v>
+      </c>
+      <c r="V72">
+        <v>316.70800000000003</v>
+      </c>
+      <c r="W72">
+        <v>-105.649</v>
+      </c>
+      <c r="X72">
+        <v>-200.393</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>226.97200000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>220.227</v>
+      </c>
+      <c r="D73">
+        <v>4722.9219999999996</v>
+      </c>
+      <c r="E73">
+        <v>2655.8879999999999</v>
+      </c>
+      <c r="F73">
+        <v>1484.2349999999999</v>
+      </c>
+      <c r="G73">
+        <v>7550.4949999999999</v>
+      </c>
+      <c r="H73">
+        <v>12657.119000000001</v>
+      </c>
+      <c r="I73">
+        <v>4036.0059999999999</v>
+      </c>
+      <c r="J73">
+        <v>2463.4520000000002</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>5661.1890000000003</v>
+      </c>
+      <c r="O73">
+        <v>8994.0400000000009</v>
+      </c>
+      <c r="P73">
+        <v>2913.9450000000002</v>
+      </c>
+      <c r="Q73">
+        <v>3.964</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>3663.0790000000002</v>
+      </c>
+      <c r="U73">
+        <v>359.10500000000002</v>
+      </c>
+      <c r="V73">
+        <v>470.45100000000002</v>
+      </c>
+      <c r="W73">
+        <v>-105.661</v>
+      </c>
+      <c r="X73">
+        <v>-366.16899999999998</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>220.227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>186.69900000000001</v>
+      </c>
+      <c r="D74">
+        <v>4603.7920000000004</v>
+      </c>
+      <c r="E74">
+        <v>2493.636</v>
+      </c>
+      <c r="F74">
+        <v>1536.38</v>
+      </c>
+      <c r="G74">
+        <v>7575.69</v>
+      </c>
+      <c r="H74">
+        <v>12683.04</v>
+      </c>
+      <c r="I74">
+        <v>3995.7890000000002</v>
+      </c>
+      <c r="J74">
+        <v>2432.1329999999998</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>5900.7330000000002</v>
+      </c>
+      <c r="O74">
+        <v>9211.0490000000009</v>
+      </c>
+      <c r="P74">
+        <v>3149.625</v>
+      </c>
+      <c r="Q74">
+        <v>-25.558</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>50000</v>
+      </c>
+      <c r="T74">
+        <v>3471.991</v>
+      </c>
+      <c r="U74">
+        <v>333.54700000000003</v>
+      </c>
+      <c r="V74">
+        <v>219.63800000000001</v>
+      </c>
+      <c r="W74">
+        <v>-105.673</v>
+      </c>
+      <c r="X74">
+        <v>13.217000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>186.69900000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>160.25</v>
+      </c>
+      <c r="D75">
+        <v>4259.1289999999999</v>
+      </c>
+      <c r="E75">
+        <v>2741.9160000000002</v>
+      </c>
+      <c r="F75">
+        <v>1392.798</v>
+      </c>
+      <c r="G75">
+        <v>7886.3909999999996</v>
+      </c>
+      <c r="H75">
+        <v>14070.53</v>
+      </c>
+      <c r="I75">
+        <v>4058.2109999999998</v>
+      </c>
+      <c r="J75">
+        <v>2389.2440000000001</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-1092.115</v>
+      </c>
+      <c r="N75">
+        <v>6545.3339999999998</v>
+      </c>
+      <c r="O75">
+        <v>10497.698</v>
+      </c>
+      <c r="P75">
+        <v>4400.5320000000002</v>
+      </c>
+      <c r="Q75">
+        <v>23.378</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3572.8319999999999</v>
+      </c>
+      <c r="U75">
+        <v>356.92500000000001</v>
+      </c>
+      <c r="V75">
+        <v>61.73</v>
+      </c>
+      <c r="W75">
+        <v>-105.369</v>
+      </c>
+      <c r="X75">
+        <v>145.679</v>
+      </c>
+      <c r="Y75">
+        <v>716.67700000000002</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>160.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>4457.9309999999996</v>
+      </c>
+      <c r="E76">
+        <v>2836.875</v>
+      </c>
+      <c r="F76">
+        <v>1482.704</v>
+      </c>
+      <c r="G76">
+        <v>8184.67</v>
+      </c>
+      <c r="H76">
+        <v>14639.472</v>
+      </c>
+      <c r="I76">
+        <v>4064.547</v>
+      </c>
+      <c r="J76">
+        <v>2871.1060000000002</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>6498.2280000000001</v>
+      </c>
+      <c r="O76">
+        <v>10951.496999999999</v>
+      </c>
+      <c r="P76">
+        <v>4830.4920000000002</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3687.9749999999999</v>
+      </c>
+      <c r="U76">
+        <v>562.55100000000004</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>724.68200000000002</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>224.43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>227.48699999999999</v>
+      </c>
+      <c r="D77">
+        <v>4525.2839999999997</v>
+      </c>
+      <c r="E77">
+        <v>2739.971</v>
+      </c>
+      <c r="F77">
+        <v>1505.2329999999999</v>
+      </c>
+      <c r="G77">
+        <v>8058.6710000000003</v>
+      </c>
+      <c r="H77">
+        <v>14513.19</v>
+      </c>
+      <c r="I77">
+        <v>4195.8689999999997</v>
+      </c>
+      <c r="J77">
+        <v>2795.8780000000002</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>6372.8130000000001</v>
+      </c>
+      <c r="O77">
+        <v>10848.453</v>
+      </c>
+      <c r="P77">
+        <v>4519.6949999999997</v>
+      </c>
+      <c r="Q77">
+        <v>-111.276</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3664.7370000000001</v>
+      </c>
+      <c r="U77">
+        <v>451.27499999999998</v>
+      </c>
+      <c r="V77">
+        <v>443.83699999999999</v>
+      </c>
+      <c r="W77">
+        <v>-111.38200000000001</v>
+      </c>
+      <c r="X77">
+        <v>-618.61199999999997</v>
+      </c>
+      <c r="Y77">
+        <v>797.16600000000005</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>227.48699999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>8.9179999999999993</v>
+      </c>
+      <c r="D78">
+        <v>4279.8900000000003</v>
+      </c>
+      <c r="E78">
+        <v>2440.252</v>
+      </c>
+      <c r="F78">
+        <v>1478.9480000000001</v>
+      </c>
+      <c r="G78">
+        <v>7938.616</v>
+      </c>
+      <c r="H78">
+        <v>14645.629000000001</v>
+      </c>
+      <c r="I78">
+        <v>3948</v>
+      </c>
+      <c r="J78">
+        <v>2802.056</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>6394.12</v>
+      </c>
+      <c r="O78">
+        <v>10950.129000000001</v>
+      </c>
+      <c r="P78">
+        <v>4462.6170000000002</v>
+      </c>
+      <c r="Q78">
+        <v>-174.28299999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>55000</v>
+      </c>
+      <c r="T78">
+        <v>3695.5</v>
+      </c>
+      <c r="U78">
+        <v>276.99200000000002</v>
+      </c>
+      <c r="V78">
+        <v>146.798</v>
+      </c>
+      <c r="W78">
+        <v>-110.78400000000001</v>
+      </c>
+      <c r="X78">
+        <v>-156.51599999999999</v>
+      </c>
+      <c r="Y78">
+        <v>756.51900000000001</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>8.9179999999999993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>136.535</v>
+      </c>
+      <c r="D79">
+        <v>4092.5259999999998</v>
+      </c>
+      <c r="E79">
+        <v>2705.192</v>
+      </c>
+      <c r="F79">
+        <v>1388.1780000000001</v>
+      </c>
+      <c r="G79">
+        <v>7993.05</v>
+      </c>
+      <c r="H79">
+        <v>14451.355</v>
+      </c>
+      <c r="I79">
+        <v>4067.4</v>
+      </c>
+      <c r="J79">
+        <v>2726.3910000000001</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1057.6669999999999</v>
+      </c>
+      <c r="N79">
+        <v>6581.22</v>
+      </c>
+      <c r="O79">
+        <v>11028.324000000001</v>
+      </c>
+      <c r="P79">
+        <v>4486.0959999999995</v>
+      </c>
+      <c r="Q79">
+        <v>77.477000000000004</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3423.0309999999999</v>
+      </c>
+      <c r="U79">
+        <v>354.46899999999999</v>
+      </c>
+      <c r="V79">
+        <v>74.06</v>
+      </c>
+      <c r="W79">
+        <v>-110.851</v>
+      </c>
+      <c r="X79">
+        <v>53.456000000000003</v>
+      </c>
+      <c r="Y79">
+        <v>803.56500000000005</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>136.535</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>3823.2269999999999</v>
+      </c>
+      <c r="E80">
+        <v>1823.357</v>
+      </c>
+      <c r="F80">
+        <v>1290.4870000000001</v>
+      </c>
+      <c r="G80">
+        <v>7291.3280000000004</v>
+      </c>
+      <c r="H80">
+        <v>13263.962</v>
+      </c>
+      <c r="I80">
+        <v>3745.0309999999999</v>
+      </c>
+      <c r="J80">
+        <v>2727.9290000000001</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>5968.73</v>
+      </c>
+      <c r="O80">
+        <v>10393.074000000001</v>
+      </c>
+      <c r="P80">
+        <v>3973.6610000000001</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>2870.8879999999999</v>
+      </c>
+      <c r="U80">
+        <v>983.75900000000001</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>756.346</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-564.37199999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>227.53100000000001</v>
+      </c>
+      <c r="D81">
+        <v>4370.0860000000002</v>
+      </c>
+      <c r="E81">
+        <v>1952.2249999999999</v>
+      </c>
+      <c r="F81">
+        <v>1528.066</v>
+      </c>
+      <c r="G81">
+        <v>7375.2849999999999</v>
+      </c>
+      <c r="H81">
+        <v>13475.460999999999</v>
+      </c>
+      <c r="I81">
+        <v>4030.319</v>
+      </c>
+      <c r="J81">
+        <v>2700.616</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>5976.6980000000003</v>
+      </c>
+      <c r="O81">
+        <v>10440.688</v>
+      </c>
+      <c r="P81">
+        <v>3686.931</v>
+      </c>
+      <c r="Q81">
+        <v>-83.635999999999996</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>3034.7730000000001</v>
+      </c>
+      <c r="U81">
+        <v>900.12300000000005</v>
+      </c>
+      <c r="V81">
+        <v>488.11900000000003</v>
+      </c>
+      <c r="W81">
+        <v>-113.967</v>
+      </c>
+      <c r="X81">
+        <v>-501.85300000000001</v>
+      </c>
+      <c r="Y81">
+        <v>779.46799999999996</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>227.53100000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>171.20400000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>4251.5940000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1556.9659999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1448.11</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>7113.7629999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>13440.215</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>4128.0839999999998</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2516.614</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>5894.0839999999998</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>10222.212</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3737.1779999999999</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>90.043000000000006</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>50000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>3218.0030000000002</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>990.16600000000005</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>579.05399999999997</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-113.983</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-484.55700000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>789.29399999999998</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>171.20400000000001</v>
       </c>
     </row>
